--- a/raw_data/Data_Extraction.xlsx
+++ b/raw_data/Data_Extraction.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="Final_Extraction_Sheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Final_Extraction_Sheet!$A$1:$AF$107</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Final_Extraction_Sheet!$A$1:$AF$105</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="532">
   <si>
     <t>Paper_ID</t>
   </si>
@@ -562,18 +562,6 @@
   </si>
   <si>
     <t>C12</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>Smartphone Use Questionnaires-General</t>
-  </si>
-  <si>
-    <t>SUQ-G</t>
-  </si>
-  <si>
-    <t>C15</t>
   </si>
   <si>
     <t>C16</t>
@@ -4537,7 +4525,7 @@
         <v>43</v>
       </c>
       <c r="S24" s="6">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="T24" s="6" t="s">
         <v>69</v>
@@ -4558,7 +4546,7 @@
         <v>43</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AA24" s="7" t="s">
         <v>50</v>
@@ -4635,7 +4623,7 @@
         <v>43</v>
       </c>
       <c r="S25" s="6">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="T25" s="6" t="s">
         <v>69</v>
@@ -4685,7 +4673,7 @@
         <v>138</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>139</v>
@@ -4699,11 +4687,11 @@
       <c r="G26" s="7">
         <v>2019.0</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>159</v>
+      <c r="H26" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>113</v>
@@ -4718,7 +4706,7 @@
         <v>60</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>44</v>
@@ -4733,28 +4721,28 @@
         <v>43</v>
       </c>
       <c r="S26" s="6">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y26" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="V26" s="6">
+        <v>226.6</v>
+      </c>
+      <c r="W26" s="6">
+        <v>128.37</v>
+      </c>
+      <c r="X26" s="6">
+        <v>232.66</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>119.44</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AA26" s="7" t="s">
         <v>50</v>
@@ -4766,13 +4754,13 @@
         <v>143</v>
       </c>
       <c r="AD26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE26" s="10" t="s">
+      <c r="AF26" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF26" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -4783,7 +4771,7 @@
         <v>138</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>139</v>
@@ -4798,10 +4786,10 @@
         <v>2019.0</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>113</v>
@@ -4816,7 +4804,7 @@
         <v>60</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>145</v>
@@ -4831,25 +4819,25 @@
         <v>43</v>
       </c>
       <c r="S27" s="6">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y27" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="V27" s="6">
+        <v>45.69</v>
+      </c>
+      <c r="W27" s="6">
+        <v>42.16</v>
+      </c>
+      <c r="X27" s="6">
+        <v>85.84</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>53.34</v>
       </c>
       <c r="Z27" s="6" t="s">
         <v>66</v>
@@ -4864,13 +4852,13 @@
         <v>143</v>
       </c>
       <c r="AD27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE27" s="10" t="s">
+      <c r="AF27" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF27" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -4881,7 +4869,7 @@
         <v>138</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>139</v>
@@ -4895,11 +4883,11 @@
       <c r="G28" s="7">
         <v>2019.0</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>175</v>
+      <c r="H28" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>113</v>
@@ -4929,25 +4917,25 @@
         <v>43</v>
       </c>
       <c r="S28" s="6">
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
       <c r="T28" s="6" t="s">
         <v>47</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V28" s="6">
-        <v>226.6</v>
-      </c>
-      <c r="W28" s="6">
-        <v>128.37</v>
-      </c>
-      <c r="X28" s="6">
-        <v>232.66</v>
-      </c>
-      <c r="Y28" s="6">
-        <v>119.44</v>
+        <v>70</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z28" s="6" t="s">
         <v>49</v>
@@ -4968,66 +4956,66 @@
         <v>4</v>
       </c>
       <c r="AF28" s="10" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="E29" s="6">
-        <v>238.0</v>
+        <v>5000.0</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="G29" s="7">
-        <v>2019.0</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>64</v>
+        <v>2020.0</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="R29" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S29" s="6">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="T29" s="6" t="s">
         <v>47</v>
@@ -5035,20 +5023,20 @@
       <c r="U29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V29" s="6">
-        <v>45.69</v>
-      </c>
-      <c r="W29" s="6">
-        <v>42.16</v>
-      </c>
-      <c r="X29" s="6">
-        <v>85.84</v>
-      </c>
-      <c r="Y29" s="6">
-        <v>53.34</v>
+      <c r="V29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y29" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z29" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>50</v>
@@ -5057,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="AC29" s="7" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="AD29" s="10" t="s">
         <v>51</v>
@@ -5066,72 +5054,72 @@
         <v>4</v>
       </c>
       <c r="AF29" s="10" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="E30" s="6">
-        <v>238.0</v>
+        <v>5000.0</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="G30" s="7">
-        <v>2019.0</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>178</v>
+        <v>2020.0</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="N30" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>45</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="R30" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S30" s="6">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="T30" s="6" t="s">
         <v>47</v>
       </c>
       <c r="U30" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="V30" s="6" t="s">
         <v>43</v>
@@ -5155,7 +5143,7 @@
         <v>4</v>
       </c>
       <c r="AC30" s="7" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="AD30" s="10" t="s">
         <v>51</v>
@@ -5169,34 +5157,34 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E31" s="6">
         <v>5000.0</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G31" s="7">
         <v>2020.0</v>
       </c>
-      <c r="H31" s="20" t="s">
-        <v>183</v>
+      <c r="H31" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>103</v>
@@ -5205,13 +5193,13 @@
         <v>41</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>45</v>
@@ -5223,7 +5211,7 @@
         <v>43</v>
       </c>
       <c r="S31" s="6">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="T31" s="6" t="s">
         <v>47</v>
@@ -5253,7 +5241,7 @@
         <v>4</v>
       </c>
       <c r="AC31" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AD31" s="10" t="s">
         <v>51</v>
@@ -5267,34 +5255,34 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E32" s="6">
         <v>5000.0</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G32" s="7">
         <v>2020.0</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>103</v>
@@ -5303,13 +5291,13 @@
         <v>41</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P32" s="6" t="s">
         <v>45</v>
@@ -5317,17 +5305,17 @@
       <c r="Q32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R32" s="6" t="s">
+      <c r="R32" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="S32" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="S32" s="6">
-        <v>0.25</v>
       </c>
       <c r="T32" s="6" t="s">
         <v>47</v>
       </c>
       <c r="U32" s="6" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="V32" s="6" t="s">
         <v>43</v>
@@ -5351,7 +5339,7 @@
         <v>4</v>
       </c>
       <c r="AC32" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AD32" s="10" t="s">
         <v>51</v>
@@ -5365,34 +5353,34 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E33" s="6">
         <v>5000.0</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G33" s="7">
         <v>2020.0</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>103</v>
@@ -5401,16 +5389,16 @@
         <v>41</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>45</v>
+        <v>183</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>81</v>
@@ -5419,7 +5407,7 @@
         <v>43</v>
       </c>
       <c r="S33" s="6">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="T33" s="6" t="s">
         <v>47</v>
@@ -5440,7 +5428,7 @@
         <v>43</v>
       </c>
       <c r="Z33" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AA33" s="7" t="s">
         <v>50</v>
@@ -5449,7 +5437,7 @@
         <v>4</v>
       </c>
       <c r="AC33" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AD33" s="10" t="s">
         <v>51</v>
@@ -5463,34 +5451,34 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E34" s="6">
         <v>5000.0</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G34" s="7">
         <v>2020.0</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>103</v>
@@ -5499,22 +5487,22 @@
         <v>41</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>45</v>
+        <v>183</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>81</v>
       </c>
       <c r="R34" s="6">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="S34" s="6" t="s">
         <v>43</v>
@@ -5523,7 +5511,7 @@
         <v>47</v>
       </c>
       <c r="U34" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="V34" s="6" t="s">
         <v>43</v>
@@ -5538,7 +5526,7 @@
         <v>43</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AA34" s="7" t="s">
         <v>50</v>
@@ -5547,7 +5535,7 @@
         <v>4</v>
       </c>
       <c r="AC34" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AD34" s="10" t="s">
         <v>51</v>
@@ -5561,61 +5549,61 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="E35" s="6">
-        <v>5000.0</v>
+        <v>43.0</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G35" s="7">
-        <v>2020.0</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>185</v>
+        <v>205</v>
+      </c>
+      <c r="G35" s="6">
+        <v>2017.0</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M35" s="7" t="s">
-        <v>186</v>
+      <c r="M35" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="N35" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P35" s="14" t="s">
-        <v>202</v>
+        <v>209</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="R35" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S35" s="6">
-        <v>0.27</v>
+        <v>0.503675</v>
       </c>
       <c r="T35" s="6" t="s">
         <v>47</v>
@@ -5623,20 +5611,20 @@
       <c r="U35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V35" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W35" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X35" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y35" s="6" t="s">
-        <v>43</v>
+      <c r="V35" s="6">
+        <v>175.3</v>
+      </c>
+      <c r="W35" s="6">
+        <v>78.3945</v>
+      </c>
+      <c r="X35" s="6">
+        <v>230.01</v>
+      </c>
+      <c r="Y35" s="6">
+        <v>73.3971</v>
       </c>
       <c r="Z35" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AA35" s="7" t="s">
         <v>50</v>
@@ -5645,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="AC35" s="7" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="AD35" s="10" t="s">
         <v>51</v>
@@ -5654,66 +5642,66 @@
         <v>4</v>
       </c>
       <c r="AF35" s="10" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="E36" s="6">
-        <v>5000.0</v>
+        <v>139.0</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" s="7">
-        <v>2020.0</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>205</v>
+        <v>110</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>186</v>
+        <v>40</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="N36" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P36" s="14" t="s">
-        <v>202</v>
+        <v>209</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R36" s="6">
-        <v>0.42</v>
-      </c>
-      <c r="S36" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="R36" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="S36" s="6">
+        <v>0.3058814</v>
       </c>
       <c r="T36" s="6" t="s">
         <v>47</v>
@@ -5721,20 +5709,20 @@
       <c r="U36" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V36" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W36" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X36" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y36" s="6" t="s">
-        <v>43</v>
+      <c r="V36" s="6">
+        <v>280.7</v>
+      </c>
+      <c r="W36" s="6">
+        <v>144.38</v>
+      </c>
+      <c r="X36" s="6">
+        <v>340.57</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>153.56</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AA36" s="7" t="s">
         <v>50</v>
@@ -5743,7 +5731,7 @@
         <v>4</v>
       </c>
       <c r="AC36" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AD36" s="10" t="s">
         <v>51</v>
@@ -5752,84 +5740,84 @@
         <v>4</v>
       </c>
       <c r="AF36" s="10" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E37" s="6">
-        <v>43.0</v>
+        <v>139.0</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G37" s="6">
-        <v>2017.0</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>210</v>
+        <v>110</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="M37" s="6" t="s">
         <v>134</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>125</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="R37" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S37" s="6">
-        <v>0.503675</v>
+        <v>0.1300913</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U37" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V37" s="6">
-        <v>175.3</v>
-      </c>
-      <c r="W37" s="6">
-        <v>78.3945</v>
-      </c>
-      <c r="X37" s="6">
-        <v>230.01</v>
-      </c>
-      <c r="Y37" s="6">
-        <v>73.3971</v>
+        <v>70</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y37" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z37" s="6" t="s">
         <v>49</v>
@@ -5841,75 +5829,75 @@
         <v>4</v>
       </c>
       <c r="AC37" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AD37" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE37" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE37" s="10" t="s">
+      <c r="AF37" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF37" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E38" s="6">
-        <v>139.0</v>
+        <v>59.0</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>43</v>
+        <v>222</v>
+      </c>
+      <c r="G38" s="6">
+        <v>2009.0</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="N38" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="R38" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="R38" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="S38" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="S38" s="6">
-        <v>0.3058814</v>
       </c>
       <c r="T38" s="6" t="s">
         <v>47</v>
@@ -5918,16 +5906,16 @@
         <v>48</v>
       </c>
       <c r="V38" s="6">
-        <v>280.7</v>
+        <v>5.07</v>
       </c>
       <c r="W38" s="6">
-        <v>144.38</v>
+        <v>2.94</v>
       </c>
       <c r="X38" s="6">
-        <v>340.57</v>
+        <v>3.75</v>
       </c>
       <c r="Y38" s="6">
-        <v>153.56</v>
+        <v>0.85</v>
       </c>
       <c r="Z38" s="6" t="s">
         <v>49</v>
@@ -5936,10 +5924,10 @@
         <v>50</v>
       </c>
       <c r="AB38" s="7" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="AC38" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AD38" s="10" t="s">
         <v>51</v>
@@ -5953,79 +5941,79 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E39" s="6">
-        <v>139.0</v>
+        <v>59.0</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>43</v>
+        <v>222</v>
+      </c>
+      <c r="G39" s="6">
+        <v>2009.0</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="R39" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="R39" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="S39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S39" s="6">
-        <v>0.1300913</v>
-      </c>
       <c r="T39" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y39" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="V39" s="6">
+        <v>1.62</v>
+      </c>
+      <c r="W39" s="6">
+        <v>1.21</v>
+      </c>
+      <c r="X39" s="6">
+        <v>2.28</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>1.98</v>
       </c>
       <c r="Z39" s="6" t="s">
         <v>49</v>
@@ -6037,48 +6025,48 @@
         <v>4</v>
       </c>
       <c r="AC39" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AD39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE39" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE39" s="10" t="s">
+      <c r="AF39" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF39" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E40" s="6">
-        <v>59.0</v>
+        <v>294.0</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G40" s="6">
-        <v>2009.0</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>227</v>
+        <v>2020.0</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>237</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>40</v>
@@ -6087,25 +6075,25 @@
         <v>41</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="N40" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="R40" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="S40" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="R40" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="S40" s="6">
+        <v>0.36</v>
       </c>
       <c r="T40" s="6" t="s">
         <v>47</v>
@@ -6114,16 +6102,16 @@
         <v>48</v>
       </c>
       <c r="V40" s="6">
-        <v>5.07</v>
+        <v>240.27</v>
       </c>
       <c r="W40" s="6">
-        <v>2.94</v>
+        <v>149.42</v>
       </c>
       <c r="X40" s="6">
-        <v>3.75</v>
+        <v>304.04</v>
       </c>
       <c r="Y40" s="6">
-        <v>0.85</v>
+        <v>105.07</v>
       </c>
       <c r="Z40" s="6" t="s">
         <v>49</v>
@@ -6132,11 +6120,9 @@
         <v>50</v>
       </c>
       <c r="AB40" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC40" s="7" t="s">
-        <v>233</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AC40" s="9"/>
       <c r="AD40" s="10" t="s">
         <v>51</v>
       </c>
@@ -6149,34 +6135,34 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E41" s="6">
-        <v>59.0</v>
+        <v>294.0</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G41" s="6">
-        <v>2009.0</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>227</v>
+        <v>2020.0</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>237</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>40</v>
@@ -6185,25 +6171,25 @@
         <v>41</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>236</v>
+        <v>65</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="R41" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="S41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="R41" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="S41" s="6">
+        <v>0.16</v>
       </c>
       <c r="T41" s="6" t="s">
         <v>47</v>
@@ -6212,19 +6198,19 @@
         <v>48</v>
       </c>
       <c r="V41" s="6">
-        <v>1.62</v>
+        <v>113.59</v>
       </c>
       <c r="W41" s="6">
-        <v>1.21</v>
+        <v>158.0</v>
       </c>
       <c r="X41" s="6">
-        <v>2.28</v>
+        <v>160.93</v>
       </c>
       <c r="Y41" s="6">
-        <v>1.98</v>
+        <v>60.28</v>
       </c>
       <c r="Z41" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AA41" s="7" t="s">
         <v>50</v>
@@ -6232,9 +6218,7 @@
       <c r="AB41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC41" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="AC41" s="9"/>
       <c r="AD41" s="10" t="s">
         <v>51</v>
       </c>
@@ -6247,28 +6231,28 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>238</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E42" s="6">
-        <v>294.0</v>
+        <v>291.0</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G42" s="6">
         <v>2020.0</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>58</v>
@@ -6283,7 +6267,7 @@
         <v>41</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="N42" s="7" t="s">
         <v>43</v>
@@ -6301,7 +6285,7 @@
         <v>43</v>
       </c>
       <c r="S42" s="6">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="T42" s="6" t="s">
         <v>47</v>
@@ -6310,16 +6294,16 @@
         <v>48</v>
       </c>
       <c r="V42" s="6">
-        <v>240.27</v>
+        <v>215.54</v>
       </c>
       <c r="W42" s="6">
-        <v>149.42</v>
+        <v>177.73</v>
       </c>
       <c r="X42" s="6">
-        <v>304.04</v>
+        <v>269.59</v>
       </c>
       <c r="Y42" s="6">
-        <v>105.07</v>
+        <v>151.06</v>
       </c>
       <c r="Z42" s="6" t="s">
         <v>49</v>
@@ -6343,28 +6327,28 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>238</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E43" s="6">
-        <v>294.0</v>
+        <v>291.0</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G43" s="6">
         <v>2020.0</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>64</v>
@@ -6379,7 +6363,7 @@
         <v>41</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>43</v>
@@ -6397,7 +6381,7 @@
         <v>43</v>
       </c>
       <c r="S43" s="6">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="T43" s="6" t="s">
         <v>47</v>
@@ -6406,16 +6390,16 @@
         <v>48</v>
       </c>
       <c r="V43" s="6">
-        <v>113.59</v>
+        <v>66.06</v>
       </c>
       <c r="W43" s="6">
-        <v>158.0</v>
+        <v>89.81</v>
       </c>
       <c r="X43" s="6">
-        <v>160.93</v>
+        <v>77.39</v>
       </c>
       <c r="Y43" s="6">
-        <v>60.28</v>
+        <v>71.23</v>
       </c>
       <c r="Z43" s="6" t="s">
         <v>66</v>
@@ -6439,31 +6423,31 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E44" s="6">
-        <v>291.0</v>
+        <v>294.0</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G44" s="6">
         <v>2020.0</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>113</v>
@@ -6475,10 +6459,10 @@
         <v>41</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>44</v>
@@ -6493,25 +6477,25 @@
         <v>43</v>
       </c>
       <c r="S44" s="6">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U44" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V44" s="6">
-        <v>215.54</v>
-      </c>
-      <c r="W44" s="6">
-        <v>177.73</v>
-      </c>
-      <c r="X44" s="6">
-        <v>269.59</v>
-      </c>
-      <c r="Y44" s="6">
-        <v>151.06</v>
+        <v>70</v>
+      </c>
+      <c r="V44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y44" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z44" s="6" t="s">
         <v>49</v>
@@ -6524,42 +6508,42 @@
       </c>
       <c r="AC44" s="9"/>
       <c r="AD44" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE44" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE44" s="10" t="s">
+      <c r="AF44" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF44" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E45" s="6">
         <v>291.0</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G45" s="6">
         <v>2020.0</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>113</v>
@@ -6574,13 +6558,13 @@
         <v>60</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="Q45" s="6" t="s">
         <v>115</v>
@@ -6589,28 +6573,28 @@
         <v>43</v>
       </c>
       <c r="S45" s="6">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
       <c r="T45" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U45" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V45" s="6">
-        <v>66.06</v>
-      </c>
-      <c r="W45" s="6">
-        <v>89.81</v>
-      </c>
-      <c r="X45" s="6">
-        <v>77.39</v>
-      </c>
-      <c r="Y45" s="6">
-        <v>71.23</v>
+        <v>70</v>
+      </c>
+      <c r="V45" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W45" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X45" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y45" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z45" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AA45" s="7" t="s">
         <v>50</v>
@@ -6620,48 +6604,48 @@
       </c>
       <c r="AC45" s="9"/>
       <c r="AD45" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE45" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE45" s="10" t="s">
+      <c r="AF45" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF45" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E46" s="6">
-        <v>294.0</v>
+        <v>45.0</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G46" s="6">
-        <v>2020.0</v>
-      </c>
-      <c r="H46" s="24" t="s">
-        <v>241</v>
+        <v>2013.0</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>244</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>41</v>
@@ -6670,40 +6654,40 @@
         <v>134</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="P46" s="6" t="s">
         <v>45</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>115</v>
+        <v>247</v>
       </c>
       <c r="R46" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S46" s="6">
-        <v>0.13</v>
+        <v>0.587</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U46" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V46" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W46" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X46" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y46" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="V46" s="6">
+        <v>145.0</v>
+      </c>
+      <c r="W46" s="6">
+        <v>111.0</v>
+      </c>
+      <c r="X46" s="6">
+        <v>26.0</v>
+      </c>
+      <c r="Y46" s="6">
+        <v>30.0</v>
       </c>
       <c r="Z46" s="6" t="s">
         <v>49</v>
@@ -6714,92 +6698,92 @@
       <c r="AB46" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC46" s="9"/>
+      <c r="AC46" s="7"/>
       <c r="AD46" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE46" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE46" s="10" t="s">
+      <c r="AF46" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF46" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="E47" s="6">
-        <v>291.0</v>
+        <v>45.0</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G47" s="6">
-        <v>2020.0</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>241</v>
+        <v>2013.0</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>244</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>41</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="P47" s="6" t="s">
         <v>45</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>115</v>
+        <v>247</v>
       </c>
       <c r="R47" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S47" s="6">
-        <v>0.29</v>
+        <v>0.866</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U47" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y47" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="V47" s="6">
+        <v>73.0</v>
+      </c>
+      <c r="W47" s="6">
+        <v>59.0</v>
+      </c>
+      <c r="X47" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="Y47" s="6">
+        <v>6.0</v>
       </c>
       <c r="Z47" s="6" t="s">
         <v>49</v>
@@ -6810,74 +6794,74 @@
       <c r="AB47" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC47" s="9"/>
+      <c r="AC47" s="7"/>
       <c r="AD47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE47" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE47" s="10" t="s">
+      <c r="AF47" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF47" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E48" s="6">
-        <v>45.0</v>
+        <v>6598.0</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G48" s="6">
-        <v>2013.0</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>248</v>
+        <v>2014.0</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>103</v>
+        <v>256</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>41</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="N48" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="R48" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S48" s="6">
-        <v>0.587</v>
+        <v>0.365</v>
       </c>
       <c r="T48" s="6" t="s">
         <v>47</v>
@@ -6886,16 +6870,16 @@
         <v>48</v>
       </c>
       <c r="V48" s="6">
-        <v>145.0</v>
+        <v>23.94</v>
       </c>
       <c r="W48" s="6">
-        <v>111.0</v>
+        <v>15.96</v>
       </c>
       <c r="X48" s="6">
-        <v>26.0</v>
+        <v>25.2</v>
       </c>
       <c r="Y48" s="6">
-        <v>30.0</v>
+        <v>17.56</v>
       </c>
       <c r="Z48" s="6" t="s">
         <v>49</v>
@@ -6906,7 +6890,7 @@
       <c r="AB48" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC48" s="7"/>
+      <c r="AC48" s="9"/>
       <c r="AD48" s="10" t="s">
         <v>51</v>
       </c>
@@ -6919,79 +6903,79 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="E49" s="6">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G49" s="6">
-        <v>2013.0</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>248</v>
+        <v>2019.0</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>41</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="P49" s="6" t="s">
         <v>45</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="R49" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S49" s="6">
-        <v>0.866</v>
+        <v>-0.12088</v>
       </c>
       <c r="T49" s="6" t="s">
         <v>47</v>
       </c>
       <c r="U49" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V49" s="6">
-        <v>73.0</v>
-      </c>
-      <c r="W49" s="6">
-        <v>59.0</v>
-      </c>
-      <c r="X49" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="Y49" s="6">
-        <v>6.0</v>
+        <v>70</v>
+      </c>
+      <c r="V49" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W49" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X49" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y49" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z49" s="6" t="s">
         <v>49</v>
@@ -7000,9 +6984,11 @@
         <v>50</v>
       </c>
       <c r="AB49" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC49" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="AC49" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="AD49" s="10" t="s">
         <v>51</v>
       </c>
@@ -7010,66 +6996,66 @@
         <v>4</v>
       </c>
       <c r="AF49" s="10" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E50" s="6">
-        <v>6598.0</v>
+        <v>270.0</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G50" s="6">
-        <v>2014.0</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>257</v>
+        <v>2012.0</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>41</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="N50" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="R50" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S50" s="6">
-        <v>0.365</v>
+        <v>0.3</v>
       </c>
       <c r="T50" s="6" t="s">
         <v>47</v>
@@ -7078,16 +7064,16 @@
         <v>48</v>
       </c>
       <c r="V50" s="6">
-        <v>23.94</v>
+        <v>2.37</v>
       </c>
       <c r="W50" s="6">
-        <v>15.96</v>
+        <v>3.53</v>
       </c>
       <c r="X50" s="6">
-        <v>25.2</v>
+        <v>1.09</v>
       </c>
       <c r="Y50" s="6">
-        <v>17.56</v>
+        <v>1.37</v>
       </c>
       <c r="Z50" s="6" t="s">
         <v>49</v>
@@ -7098,7 +7084,9 @@
       <c r="AB50" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC50" s="9"/>
+      <c r="AC50" s="7" t="s">
+        <v>277</v>
+      </c>
       <c r="AD50" s="10" t="s">
         <v>51</v>
       </c>
@@ -7111,34 +7099,34 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E51" s="6">
-        <v>49.0</v>
+        <v>270.0</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G51" s="6">
-        <v>2019.0</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>267</v>
+        <v>2012.0</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>269</v>
+        <v>59</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>40</v>
@@ -7153,37 +7141,37 @@
         <v>43</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="R51" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S51" s="6">
-        <v>-0.12088</v>
+        <v>0.48</v>
       </c>
       <c r="T51" s="6" t="s">
         <v>47</v>
       </c>
       <c r="U51" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V51" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W51" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X51" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y51" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="V51" s="6">
+        <v>2.79</v>
+      </c>
+      <c r="W51" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="X51" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="Y51" s="6">
+        <v>1.31</v>
       </c>
       <c r="Z51" s="6" t="s">
         <v>49</v>
@@ -7192,10 +7180,10 @@
         <v>50</v>
       </c>
       <c r="AB51" s="7" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="AC51" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AD51" s="10" t="s">
         <v>51</v>
@@ -7204,36 +7192,36 @@
         <v>4</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E52" s="6">
-        <v>270.0</v>
+        <v>182.0</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G52" s="6">
         <v>2012.0</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>59</v>
@@ -7251,19 +7239,19 @@
         <v>43</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="R52" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S52" s="6">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="T52" s="6" t="s">
         <v>47</v>
@@ -7272,16 +7260,16 @@
         <v>48</v>
       </c>
       <c r="V52" s="6">
-        <v>2.37</v>
+        <v>2.15</v>
       </c>
       <c r="W52" s="6">
-        <v>3.53</v>
+        <v>8.03</v>
       </c>
       <c r="X52" s="6">
-        <v>1.09</v>
+        <v>0.16</v>
       </c>
       <c r="Y52" s="6">
-        <v>1.37</v>
+        <v>0.59</v>
       </c>
       <c r="Z52" s="6" t="s">
         <v>49</v>
@@ -7293,7 +7281,7 @@
         <v>4</v>
       </c>
       <c r="AC52" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AD52" s="10" t="s">
         <v>51</v>
@@ -7307,31 +7295,31 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E53" s="6">
-        <v>270.0</v>
+        <v>182.0</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G53" s="6">
         <v>2012.0</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J53" s="6" t="s">
         <v>59</v>
@@ -7349,19 +7337,19 @@
         <v>43</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="R53" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S53" s="6">
-        <v>0.48</v>
+        <v>0.04</v>
       </c>
       <c r="T53" s="6" t="s">
         <v>47</v>
@@ -7370,16 +7358,16 @@
         <v>48</v>
       </c>
       <c r="V53" s="6">
-        <v>2.79</v>
+        <v>3.54</v>
       </c>
       <c r="W53" s="6">
-        <v>3.9</v>
+        <v>9.21</v>
       </c>
       <c r="X53" s="6">
-        <v>0.95</v>
+        <v>0.55</v>
       </c>
       <c r="Y53" s="6">
-        <v>1.31</v>
+        <v>0.94</v>
       </c>
       <c r="Z53" s="6" t="s">
         <v>49</v>
@@ -7391,7 +7379,7 @@
         <v>4</v>
       </c>
       <c r="AC53" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AD53" s="10" t="s">
         <v>51</v>
@@ -7405,31 +7393,31 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E54" s="6">
-        <v>182.0</v>
+        <v>35.0</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="G54" s="6">
-        <v>2012.0</v>
-      </c>
-      <c r="H54" s="26" t="s">
-        <v>276</v>
+        <v>2017.0</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>289</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>59</v>
@@ -7441,25 +7429,25 @@
         <v>41</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="N54" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="R54" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S54" s="6">
-        <v>0.05</v>
+        <v>0.528</v>
       </c>
       <c r="T54" s="6" t="s">
         <v>47</v>
@@ -7468,16 +7456,16 @@
         <v>48</v>
       </c>
       <c r="V54" s="6">
-        <v>2.15</v>
+        <v>232.945</v>
       </c>
       <c r="W54" s="6">
-        <v>8.03</v>
+        <v>169.133</v>
       </c>
       <c r="X54" s="6">
-        <v>0.16</v>
+        <v>276.52</v>
       </c>
       <c r="Y54" s="6">
-        <v>0.59</v>
+        <v>126.486</v>
       </c>
       <c r="Z54" s="6" t="s">
         <v>49</v>
@@ -7486,10 +7474,10 @@
         <v>50</v>
       </c>
       <c r="AB54" s="7" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="AC54" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AD54" s="10" t="s">
         <v>51</v>
@@ -7503,31 +7491,31 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E55" s="6">
-        <v>182.0</v>
+        <v>14.0</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="G55" s="6">
-        <v>2012.0</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>276</v>
+        <v>2014.0</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>297</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="J55" s="6" t="s">
         <v>59</v>
@@ -7542,40 +7530,40 @@
         <v>60</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>43</v>
+        <v>299</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="R55" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S55" s="6">
-        <v>0.04</v>
+        <v>0.006</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U55" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V55" s="6">
-        <v>3.54</v>
-      </c>
-      <c r="W55" s="6">
-        <v>9.21</v>
-      </c>
-      <c r="X55" s="6">
-        <v>0.55</v>
-      </c>
-      <c r="Y55" s="6">
-        <v>0.94</v>
+        <v>70</v>
+      </c>
+      <c r="V55" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W55" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X55" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y55" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z55" s="6" t="s">
         <v>49</v>
@@ -7587,45 +7575,45 @@
         <v>4</v>
       </c>
       <c r="AC55" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="AD55" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE55" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE55" s="10" t="s">
+      <c r="AF55" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF55" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E56" s="6">
-        <v>35.0</v>
+        <v>14.0</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G56" s="6">
-        <v>2017.0</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>293</v>
+        <v>2014.0</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>297</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="J56" s="6" t="s">
         <v>59</v>
@@ -7637,93 +7625,93 @@
         <v>41</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>43</v>
+        <v>299</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="R56" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S56" s="6">
-        <v>0.528</v>
+        <v>0.628</v>
       </c>
       <c r="T56" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U56" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V56" s="6">
-        <v>232.945</v>
-      </c>
-      <c r="W56" s="6">
-        <v>169.133</v>
-      </c>
-      <c r="X56" s="6">
-        <v>276.52</v>
-      </c>
-      <c r="Y56" s="6">
-        <v>126.486</v>
+        <v>70</v>
+      </c>
+      <c r="V56" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W56" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X56" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y56" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z56" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AA56" s="7" t="s">
         <v>50</v>
       </c>
       <c r="AB56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC56" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD56" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE56" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AC56" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD56" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE56" s="10" t="s">
+      <c r="AF56" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF56" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="E57" s="6">
-        <v>14.0</v>
+        <v>66.0</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G57" s="6">
-        <v>2014.0</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>301</v>
+        <v>2015.0</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>306</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="J57" s="6" t="s">
         <v>59</v>
@@ -7735,43 +7723,43 @@
         <v>41</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="R57" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S57" s="6">
-        <v>0.006</v>
+        <v>0.456</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U57" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V57" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W57" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X57" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y57" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="V57" s="6">
+        <v>20.11</v>
+      </c>
+      <c r="W57" s="6">
+        <v>12.4</v>
+      </c>
+      <c r="X57" s="6">
+        <v>29.39</v>
+      </c>
+      <c r="Y57" s="6">
+        <v>14.45</v>
       </c>
       <c r="Z57" s="6" t="s">
         <v>49</v>
@@ -7783,75 +7771,75 @@
         <v>4</v>
       </c>
       <c r="AC57" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AD57" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE57" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE57" s="10" t="s">
+      <c r="AF57" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF57" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="E58" s="6">
-        <v>14.0</v>
+        <v>45.0</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G58" s="6">
-        <v>2014.0</v>
-      </c>
-      <c r="H58" s="28" t="s">
-        <v>301</v>
+        <v>314</v>
+      </c>
+      <c r="G58" s="7">
+        <v>2020.0</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>59</v>
+        <v>316</v>
+      </c>
+      <c r="J58" s="29" t="s">
+        <v>317</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L58" s="6" t="s">
+      <c r="L58" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M58" s="6" t="s">
+      <c r="M58" s="7" t="s">
         <v>60</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="R58" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S58" s="6">
-        <v>0.628</v>
+        <v>0.4</v>
       </c>
       <c r="T58" s="6" t="s">
         <v>69</v>
@@ -7859,29 +7847,29 @@
       <c r="U58" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="V58" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W58" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X58" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y58" s="6" t="s">
-        <v>43</v>
+      <c r="V58" s="6">
+        <v>36.59</v>
+      </c>
+      <c r="W58" s="6">
+        <v>9.38</v>
+      </c>
+      <c r="X58" s="6">
+        <v>176.32</v>
+      </c>
+      <c r="Y58" s="6">
+        <v>121.44</v>
       </c>
       <c r="Z58" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AA58" s="7" t="s">
-        <v>50</v>
+        <v>320</v>
       </c>
       <c r="AB58" s="7" t="s">
         <v>4</v>
       </c>
       <c r="AC58" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="AD58" s="10" t="s">
         <v>4</v>
@@ -7895,373 +7883,371 @@
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E59" s="6">
-        <v>66.0</v>
+        <v>45.0</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G59" s="6">
-        <v>2015.0</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>310</v>
+        <v>314</v>
+      </c>
+      <c r="G59" s="7">
+        <v>2020.0</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>59</v>
+        <v>316</v>
+      </c>
+      <c r="J59" s="29" t="s">
+        <v>317</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L59" s="6" t="s">
+      <c r="L59" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M59" s="6" t="s">
-        <v>134</v>
+      <c r="M59" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>312</v>
+        <v>145</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>313</v>
+        <v>65</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="R59" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S59" s="6">
-        <v>0.456</v>
+        <v>0.22</v>
       </c>
       <c r="T59" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U59" s="6" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="V59" s="6">
-        <v>20.11</v>
+        <v>36.59</v>
       </c>
       <c r="W59" s="6">
-        <v>12.4</v>
+        <v>9.38</v>
       </c>
       <c r="X59" s="6">
-        <v>29.39</v>
+        <v>62.69</v>
       </c>
       <c r="Y59" s="6">
-        <v>14.45</v>
+        <v>28.89</v>
       </c>
       <c r="Z59" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AA59" s="7" t="s">
-        <v>50</v>
+        <v>320</v>
       </c>
       <c r="AB59" s="7" t="s">
         <v>4</v>
       </c>
       <c r="AC59" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AD59" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE59" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE59" s="10" t="s">
+      <c r="AF59" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF59" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E60" s="6">
-        <v>45.0</v>
+        <v>1211.0</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G60" s="7">
-        <v>2020.0</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>319</v>
+        <v>325</v>
+      </c>
+      <c r="G60" s="6">
+        <v>2007.0</v>
+      </c>
+      <c r="H60" s="30" t="s">
+        <v>326</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="J60" s="29" t="s">
-        <v>321</v>
+        <v>327</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L60" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L60" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M60" s="7" t="s">
+      <c r="M60" s="6" t="s">
         <v>60</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P60" s="6" t="s">
-        <v>45</v>
+        <v>330</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="R60" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="R60" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="S60" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S60" s="6">
-        <v>0.4</v>
-      </c>
       <c r="T60" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U60" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="V60" s="6">
-        <v>36.59</v>
+        <v>24.7</v>
       </c>
       <c r="W60" s="6">
-        <v>9.38</v>
+        <v>6.9</v>
       </c>
       <c r="X60" s="6">
-        <v>176.32</v>
+        <v>10.8</v>
       </c>
       <c r="Y60" s="6">
-        <v>121.44</v>
+        <v>4.8</v>
       </c>
       <c r="Z60" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AA60" s="7" t="s">
-        <v>324</v>
+        <v>50</v>
       </c>
       <c r="AB60" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC60" s="7" t="s">
-        <v>325</v>
-      </c>
+      <c r="AC60" s="9"/>
       <c r="AD60" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE60" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE60" s="10" t="s">
+      <c r="AF60" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF60" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="E61" s="6">
-        <v>45.0</v>
+        <v>58.0</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G61" s="7">
-        <v>2020.0</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>319</v>
+        <v>336</v>
+      </c>
+      <c r="G61" s="6">
+        <v>2015.0</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>337</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="J61" s="29" t="s">
-        <v>321</v>
+        <v>338</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L61" s="7" t="s">
+      <c r="L61" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M61" s="7" t="s">
-        <v>60</v>
+      <c r="M61" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>145</v>
+        <v>339</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>65</v>
+        <v>340</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="R61" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="R61" s="6">
+        <v>0.362</v>
+      </c>
+      <c r="S61" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S61" s="6">
-        <v>0.22</v>
-      </c>
       <c r="T61" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U61" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="V61" s="6">
-        <v>36.59</v>
+        <v>15.79</v>
       </c>
       <c r="W61" s="6">
-        <v>9.38</v>
+        <v>18.04</v>
       </c>
       <c r="X61" s="6">
-        <v>62.69</v>
+        <v>10.16</v>
       </c>
       <c r="Y61" s="6">
-        <v>28.89</v>
+        <v>6.06</v>
       </c>
       <c r="Z61" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AA61" s="7" t="s">
-        <v>324</v>
+        <v>50</v>
       </c>
       <c r="AB61" s="7" t="s">
         <v>4</v>
       </c>
       <c r="AC61" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="AD61" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE61" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE61" s="10" t="s">
+      <c r="AF61" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF61" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E62" s="6">
-        <v>1211.0</v>
+        <v>58.0</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G62" s="6">
-        <v>2007.0</v>
-      </c>
-      <c r="H62" s="30" t="s">
-        <v>330</v>
+        <v>2015.0</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>337</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>332</v>
+        <v>67</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="L62" s="6" t="s">
         <v>41</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="R62" s="6">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="S62" s="6" t="s">
         <v>43</v>
       </c>
       <c r="T62" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U62" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V62" s="6">
-        <v>24.7</v>
-      </c>
-      <c r="W62" s="6">
-        <v>6.9</v>
-      </c>
-      <c r="X62" s="6">
-        <v>10.8</v>
-      </c>
-      <c r="Y62" s="6">
-        <v>4.8</v>
+        <v>70</v>
+      </c>
+      <c r="V62" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W62" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X62" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y62" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z62" s="6" t="s">
         <v>49</v>
@@ -8272,71 +8258,71 @@
       <c r="AB62" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC62" s="9"/>
+      <c r="AC62" s="7"/>
       <c r="AD62" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE62" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE62" s="10" t="s">
+      <c r="AF62" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF62" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E63" s="6">
-        <v>58.0</v>
+        <v>130.0</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G63" s="6">
-        <v>2015.0</v>
-      </c>
-      <c r="H63" s="31" t="s">
-        <v>341</v>
+        <v>346</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>59</v>
+        <v>101</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="N63" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>343</v>
+        <v>114</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="R63" s="6">
-        <v>0.362</v>
+        <v>0.206</v>
       </c>
       <c r="S63" s="6" t="s">
         <v>43</v>
@@ -8347,17 +8333,17 @@
       <c r="U63" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V63" s="6">
-        <v>15.79</v>
-      </c>
-      <c r="W63" s="6">
-        <v>18.04</v>
-      </c>
-      <c r="X63" s="6">
-        <v>10.16</v>
-      </c>
-      <c r="Y63" s="6">
-        <v>6.06</v>
+      <c r="V63" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W63" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X63" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y63" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z63" s="6" t="s">
         <v>49</v>
@@ -8369,7 +8355,7 @@
         <v>4</v>
       </c>
       <c r="AC63" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AD63" s="10" t="s">
         <v>51</v>
@@ -8378,66 +8364,66 @@
         <v>4</v>
       </c>
       <c r="AF63" s="10" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="E64" s="6">
-        <v>58.0</v>
+        <v>64.0</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G64" s="6">
-        <v>2015.0</v>
-      </c>
-      <c r="H64" s="31" t="s">
-        <v>341</v>
+        <v>352</v>
+      </c>
+      <c r="G64" s="7">
+        <v>2019.0</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>353</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>59</v>
+        <v>354</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L64" s="6" t="s">
+      <c r="L64" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M64" s="6" t="s">
-        <v>134</v>
+      <c r="M64" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>343</v>
+        <v>44</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="R64" s="6">
-        <v>0.37</v>
-      </c>
-      <c r="S64" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="R64" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="S64" s="6">
+        <v>0.15</v>
       </c>
       <c r="T64" s="6" t="s">
         <v>69</v>
@@ -8479,22 +8465,22 @@
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="E65" s="6">
-        <v>130.0</v>
+        <v>142.0</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>111</v>
@@ -8503,37 +8489,37 @@
         <v>43</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>351</v>
+        <v>58</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L65" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M65" s="6" t="s">
-        <v>186</v>
+      <c r="M65" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="N65" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>45</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="R65" s="6">
-        <v>0.206</v>
-      </c>
-      <c r="S65" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R65" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="S65" s="6">
+        <v>0.24</v>
       </c>
       <c r="T65" s="6" t="s">
         <v>47</v>
@@ -8541,17 +8527,17 @@
       <c r="U65" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V65" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W65" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X65" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y65" s="6" t="s">
-        <v>43</v>
+      <c r="V65" s="6">
+        <v>273.31</v>
+      </c>
+      <c r="W65" s="6">
+        <v>174.97</v>
+      </c>
+      <c r="X65" s="6">
+        <v>320.01</v>
+      </c>
+      <c r="Y65" s="6">
+        <v>178.61</v>
       </c>
       <c r="Z65" s="6" t="s">
         <v>49</v>
@@ -8563,7 +8549,7 @@
         <v>4</v>
       </c>
       <c r="AC65" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AD65" s="10" t="s">
         <v>51</v>
@@ -8572,51 +8558,51 @@
         <v>4</v>
       </c>
       <c r="AF65" s="10" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="6" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E66" s="6">
-        <v>64.0</v>
+        <v>47.0</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G66" s="7">
-        <v>2019.0</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>357</v>
+        <v>364</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>358</v>
+        <v>113</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L66" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M66" s="7" t="s">
+      <c r="L66" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M66" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N66" s="7" t="s">
-        <v>155</v>
+      <c r="N66" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>44</v>
@@ -8625,31 +8611,31 @@
         <v>45</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>359</v>
+        <v>115</v>
       </c>
       <c r="R66" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S66" s="6">
-        <v>0.15</v>
+        <v>0.3711</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U66" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V66" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W66" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X66" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y66" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="V66" s="6">
+        <v>145.8</v>
+      </c>
+      <c r="W66" s="6">
+        <v>129.9</v>
+      </c>
+      <c r="X66" s="6">
+        <v>256.8</v>
+      </c>
+      <c r="Y66" s="6">
+        <v>184.3</v>
       </c>
       <c r="Z66" s="6" t="s">
         <v>49</v>
@@ -8662,33 +8648,33 @@
       </c>
       <c r="AC66" s="7"/>
       <c r="AD66" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE66" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE66" s="10" t="s">
+      <c r="AF66" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF66" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E67" s="6">
-        <v>142.0</v>
+        <v>47.0</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>111</v>
@@ -8697,7 +8683,7 @@
         <v>43</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>113</v>
@@ -8705,29 +8691,29 @@
       <c r="K67" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L67" s="7" t="s">
+      <c r="L67" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="M67" s="7" t="s">
+      <c r="M67" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N67" s="7" t="s">
+      <c r="N67" s="15" t="s">
         <v>43</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="Q67" s="6" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="R67" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S67" s="6">
-        <v>0.24</v>
+        <v>0.3209</v>
       </c>
       <c r="T67" s="6" t="s">
         <v>47</v>
@@ -8736,19 +8722,19 @@
         <v>48</v>
       </c>
       <c r="V67" s="6">
-        <v>273.31</v>
+        <v>54.9</v>
       </c>
       <c r="W67" s="6">
-        <v>174.97</v>
+        <v>92.1</v>
       </c>
       <c r="X67" s="6">
-        <v>320.01</v>
+        <v>69.6</v>
       </c>
       <c r="Y67" s="6">
-        <v>178.61</v>
+        <v>46.6</v>
       </c>
       <c r="Z67" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AA67" s="7" t="s">
         <v>50</v>
@@ -8756,9 +8742,7 @@
       <c r="AB67" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC67" s="7" t="s">
-        <v>364</v>
-      </c>
+      <c r="AC67" s="7"/>
       <c r="AD67" s="10" t="s">
         <v>51</v>
       </c>
@@ -8783,67 +8767,67 @@
         <v>367</v>
       </c>
       <c r="E68" s="6">
-        <v>47.0</v>
+        <v>33.0</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>113</v>
+      <c r="G68" s="6">
+        <v>2019.0</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>371</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="M68" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N68" s="15" t="s">
-        <v>43</v>
+      <c r="N68" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>45</v>
       </c>
       <c r="Q68" s="6" t="s">
-        <v>115</v>
+        <v>373</v>
       </c>
       <c r="R68" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S68" s="6">
-        <v>0.3711</v>
+        <v>0.297</v>
       </c>
       <c r="T68" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U68" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V68" s="6">
-        <v>145.8</v>
-      </c>
-      <c r="W68" s="6">
-        <v>129.9</v>
-      </c>
-      <c r="X68" s="6">
-        <v>256.8</v>
-      </c>
-      <c r="Y68" s="6">
-        <v>184.3</v>
+        <v>70</v>
+      </c>
+      <c r="V68" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W68" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X68" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y68" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z68" s="6" t="s">
         <v>49</v>
@@ -8856,13 +8840,13 @@
       </c>
       <c r="AC68" s="7"/>
       <c r="AD68" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE68" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE68" s="10" t="s">
+      <c r="AF68" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF68" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="69">
@@ -8879,67 +8863,67 @@
         <v>367</v>
       </c>
       <c r="E69" s="6">
-        <v>47.0</v>
+        <v>33.0</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>113</v>
+      <c r="G69" s="6">
+        <v>2019.0</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>371</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="M69" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N69" s="15" t="s">
-        <v>43</v>
+      <c r="N69" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>145</v>
+        <v>374</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>65</v>
+        <v>375</v>
       </c>
       <c r="Q69" s="6" t="s">
-        <v>115</v>
+        <v>373</v>
       </c>
       <c r="R69" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S69" s="6">
-        <v>0.3209</v>
+        <v>-0.089</v>
       </c>
       <c r="T69" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U69" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V69" s="6">
-        <v>54.9</v>
-      </c>
-      <c r="W69" s="6">
-        <v>92.1</v>
-      </c>
-      <c r="X69" s="6">
-        <v>69.6</v>
-      </c>
-      <c r="Y69" s="6">
-        <v>46.6</v>
+        <v>70</v>
+      </c>
+      <c r="V69" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W69" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X69" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y69" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z69" s="6" t="s">
         <v>66</v>
@@ -8952,45 +8936,45 @@
       </c>
       <c r="AC69" s="7"/>
       <c r="AD69" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE69" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE69" s="10" t="s">
+      <c r="AF69" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF69" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="6" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E70" s="6">
-        <v>33.0</v>
+        <v>140.0</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G70" s="6">
-        <v>2019.0</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>375</v>
+        <v>2018.0</v>
+      </c>
+      <c r="H70" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>40</v>
@@ -9002,22 +8986,22 @@
         <v>60</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>376</v>
+        <v>155</v>
       </c>
       <c r="O70" s="7" t="s">
         <v>114</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>45</v>
+        <v>382</v>
       </c>
       <c r="Q70" s="6" t="s">
-        <v>377</v>
+        <v>115</v>
       </c>
       <c r="R70" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S70" s="6">
-        <v>0.297</v>
+        <v>0.369</v>
       </c>
       <c r="T70" s="6" t="s">
         <v>69</v>
@@ -9059,34 +9043,34 @@
     </row>
     <row r="71">
       <c r="A71" s="6" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E71" s="6">
-        <v>33.0</v>
+        <v>140.0</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G71" s="6">
-        <v>2019.0</v>
-      </c>
-      <c r="H71" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>375</v>
+        <v>2018.0</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="K71" s="6" t="s">
         <v>40</v>
@@ -9098,22 +9082,22 @@
         <v>60</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>376</v>
+        <v>155</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q71" s="6" t="s">
-        <v>377</v>
+        <v>266</v>
       </c>
       <c r="R71" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S71" s="6">
-        <v>-0.089</v>
+        <v>0.231</v>
       </c>
       <c r="T71" s="6" t="s">
         <v>69</v>
@@ -9134,7 +9118,7 @@
         <v>43</v>
       </c>
       <c r="Z71" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AA71" s="7" t="s">
         <v>50</v>
@@ -9155,34 +9139,34 @@
     </row>
     <row r="72">
       <c r="A72" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E72" s="6">
         <v>140.0</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G72" s="6">
         <v>2018.0</v>
       </c>
       <c r="H72" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>154</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>40</v>
@@ -9197,19 +9181,19 @@
         <v>155</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>386</v>
+        <v>65</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>115</v>
+        <v>385</v>
       </c>
       <c r="R72" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S72" s="6">
-        <v>0.369</v>
+        <v>0.254</v>
       </c>
       <c r="T72" s="6" t="s">
         <v>69</v>
@@ -9230,7 +9214,7 @@
         <v>43</v>
       </c>
       <c r="Z72" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AA72" s="7" t="s">
         <v>50</v>
@@ -9251,34 +9235,34 @@
     </row>
     <row r="73">
       <c r="A73" s="6" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E73" s="6">
-        <v>140.0</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>383</v>
+        <v>216.0</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>389</v>
       </c>
       <c r="G73" s="6">
         <v>2018.0</v>
       </c>
-      <c r="H73" s="32" t="s">
-        <v>384</v>
+      <c r="H73" s="34" t="s">
+        <v>390</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>387</v>
+        <v>174</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>383</v>
       </c>
       <c r="K73" s="6" t="s">
         <v>40</v>
@@ -9287,28 +9271,28 @@
         <v>41</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N73" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="O73" s="7" t="s">
-        <v>312</v>
+        <v>134</v>
+      </c>
+      <c r="N73" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O73" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="Q73" s="6" t="s">
-        <v>270</v>
+        <v>392</v>
       </c>
       <c r="R73" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S73" s="6">
-        <v>0.231</v>
+        <v>0.11</v>
       </c>
       <c r="T73" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U73" s="6" t="s">
         <v>70</v>
@@ -9336,10 +9320,10 @@
       </c>
       <c r="AC73" s="7"/>
       <c r="AD73" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE73" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AE73" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="AF73" s="10" t="s">
         <v>4</v>
@@ -9347,34 +9331,34 @@
     </row>
     <row r="74">
       <c r="A74" s="6" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E74" s="6">
-        <v>140.0</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>383</v>
+        <v>104.0</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>389</v>
       </c>
       <c r="G74" s="6">
         <v>2018.0</v>
       </c>
-      <c r="H74" s="32" t="s">
-        <v>384</v>
+      <c r="H74" s="34" t="s">
+        <v>390</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>387</v>
+        <v>174</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>383</v>
       </c>
       <c r="K74" s="6" t="s">
         <v>40</v>
@@ -9383,28 +9367,28 @@
         <v>41</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N74" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="O74" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N74" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O74" s="15" t="s">
         <v>145</v>
       </c>
       <c r="P74" s="6" t="s">
         <v>65</v>
       </c>
       <c r="Q74" s="6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="R74" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S74" s="6">
-        <v>0.254</v>
+        <v>0.25</v>
       </c>
       <c r="T74" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U74" s="6" t="s">
         <v>70</v>
@@ -9432,10 +9416,10 @@
       </c>
       <c r="AC74" s="7"/>
       <c r="AD74" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE74" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AE74" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="AF74" s="10" t="s">
         <v>4</v>
@@ -9443,79 +9427,79 @@
     </row>
     <row r="75">
       <c r="A75" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E75" s="6">
-        <v>216.0</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="G75" s="6">
+        <v>101.0</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G75" s="7">
         <v>2018.0</v>
       </c>
-      <c r="H75" s="34" t="s">
-        <v>394</v>
+      <c r="H75" s="12" t="s">
+        <v>397</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>387</v>
+        <v>239</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="K75" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L75" s="6" t="s">
+      <c r="L75" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M75" s="6" t="s">
+      <c r="M75" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="N75" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="O75" s="15" t="s">
-        <v>395</v>
+      <c r="N75" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>45</v>
+        <v>340</v>
       </c>
       <c r="Q75" s="6" t="s">
-        <v>396</v>
+        <v>228</v>
       </c>
       <c r="R75" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S75" s="6">
-        <v>0.11</v>
+        <v>0.231</v>
       </c>
       <c r="T75" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U75" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="V75" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W75" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X75" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y75" s="6" t="s">
-        <v>43</v>
+      <c r="V75" s="6">
+        <v>93.998</v>
+      </c>
+      <c r="W75" s="6">
+        <v>24.075</v>
+      </c>
+      <c r="X75" s="6">
+        <v>243.008</v>
+      </c>
+      <c r="Y75" s="6">
+        <v>103.519</v>
       </c>
       <c r="Z75" s="6" t="s">
         <v>49</v>
@@ -9528,10 +9512,10 @@
       </c>
       <c r="AC75" s="7"/>
       <c r="AD75" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE75" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AE75" s="10" t="s">
-        <v>4</v>
       </c>
       <c r="AF75" s="10" t="s">
         <v>4</v>
@@ -9539,79 +9523,79 @@
     </row>
     <row r="76">
       <c r="A76" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E76" s="6">
-        <v>104.0</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="G76" s="6">
+        <v>101.0</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G76" s="7">
         <v>2018.0</v>
       </c>
-      <c r="H76" s="34" t="s">
-        <v>394</v>
+      <c r="H76" s="12" t="s">
+        <v>397</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>387</v>
+        <v>239</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="K76" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L76" s="6" t="s">
+      <c r="L76" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M76" s="6" t="s">
+      <c r="M76" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="N76" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="O76" s="15" t="s">
+      <c r="N76" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O76" s="7" t="s">
         <v>145</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>65</v>
+        <v>398</v>
       </c>
       <c r="Q76" s="6" t="s">
-        <v>396</v>
+        <v>228</v>
       </c>
       <c r="R76" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S76" s="6">
-        <v>0.25</v>
+        <v>0.041</v>
       </c>
       <c r="T76" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U76" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="V76" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W76" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X76" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y76" s="6" t="s">
-        <v>43</v>
+      <c r="V76" s="6">
+        <v>93.998</v>
+      </c>
+      <c r="W76" s="6">
+        <v>24.075</v>
+      </c>
+      <c r="X76" s="6">
+        <v>88.197</v>
+      </c>
+      <c r="Y76" s="6">
+        <v>46.671</v>
       </c>
       <c r="Z76" s="6" t="s">
         <v>66</v>
@@ -9624,10 +9608,10 @@
       </c>
       <c r="AC76" s="7"/>
       <c r="AD76" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE76" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AE76" s="10" t="s">
-        <v>4</v>
       </c>
       <c r="AF76" s="10" t="s">
         <v>4</v>
@@ -9635,79 +9619,79 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E77" s="6">
-        <v>101.0</v>
+        <v>30.0</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G77" s="7">
-        <v>2018.0</v>
-      </c>
-      <c r="H77" s="12" t="s">
         <v>401</v>
       </c>
+      <c r="G77" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="I77" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>133</v>
+        <v>403</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L77" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L77" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M77" s="7" t="s">
-        <v>134</v>
+      <c r="M77" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P77" s="6" t="s">
-        <v>344</v>
+        <v>404</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>405</v>
       </c>
       <c r="Q77" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="R77" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S77" s="6">
-        <v>0.231</v>
+        <v>0.39</v>
       </c>
       <c r="T77" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U77" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="V77" s="6">
-        <v>93.998</v>
+        <v>44.8</v>
       </c>
       <c r="W77" s="6">
-        <v>24.075</v>
+        <v>41.12</v>
       </c>
       <c r="X77" s="6">
-        <v>243.008</v>
+        <v>24.597</v>
       </c>
       <c r="Y77" s="6">
-        <v>103.519</v>
+        <v>19.56</v>
       </c>
       <c r="Z77" s="6" t="s">
         <v>49</v>
@@ -9718,92 +9702,94 @@
       <c r="AB77" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC77" s="7"/>
+      <c r="AC77" s="7" t="s">
+        <v>406</v>
+      </c>
       <c r="AD77" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE77" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE77" s="10" t="s">
+      <c r="AF77" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF77" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E78" s="6">
-        <v>101.0</v>
+        <v>30.0</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G78" s="7">
-        <v>2018.0</v>
-      </c>
-      <c r="H78" s="12" t="s">
         <v>401</v>
       </c>
+      <c r="G78" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="I78" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>133</v>
+        <v>407</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L78" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L78" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M78" s="7" t="s">
-        <v>134</v>
+      <c r="M78" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P78" s="6" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="Q78" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="R78" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S78" s="6">
-        <v>0.041</v>
+        <v>0.47</v>
       </c>
       <c r="T78" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U78" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="V78" s="6">
-        <v>93.998</v>
+        <v>9.5333</v>
       </c>
       <c r="W78" s="6">
-        <v>24.075</v>
+        <v>10.944</v>
       </c>
       <c r="X78" s="6">
-        <v>88.197</v>
+        <v>12.88</v>
       </c>
       <c r="Y78" s="6">
-        <v>46.671</v>
+        <v>9.8</v>
       </c>
       <c r="Z78" s="6" t="s">
         <v>66</v>
@@ -9814,74 +9800,76 @@
       <c r="AB78" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC78" s="7"/>
+      <c r="AC78" s="7" t="s">
+        <v>406</v>
+      </c>
       <c r="AD78" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE78" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE78" s="10" t="s">
+      <c r="AF78" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF78" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="6" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="E79" s="6">
-        <v>30.0</v>
+        <v>3401.0</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G79" s="6">
-        <v>2020.0</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>406</v>
+        <v>413</v>
+      </c>
+      <c r="G79" s="7">
+        <v>2016.0</v>
+      </c>
+      <c r="H79" s="35" t="s">
+        <v>414</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>321</v>
+        <v>415</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>416</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L79" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L79" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M79" s="6" t="s">
-        <v>186</v>
+      <c r="M79" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="N79" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="P79" s="7" t="s">
-        <v>409</v>
+        <v>80</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="Q79" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="R79" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="R79" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="S79" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="S79" s="6">
-        <v>0.39</v>
       </c>
       <c r="T79" s="6" t="s">
         <v>47</v>
@@ -9889,17 +9877,17 @@
       <c r="U79" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V79" s="6">
-        <v>44.8</v>
-      </c>
-      <c r="W79" s="6">
-        <v>41.12</v>
-      </c>
-      <c r="X79" s="6">
-        <v>24.597</v>
-      </c>
-      <c r="Y79" s="6">
-        <v>19.56</v>
+      <c r="V79" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W79" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X79" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y79" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z79" s="6" t="s">
         <v>49</v>
@@ -9911,7 +9899,7 @@
         <v>4</v>
       </c>
       <c r="AC79" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AD79" s="10" t="s">
         <v>51</v>
@@ -9920,87 +9908,87 @@
         <v>4</v>
       </c>
       <c r="AF79" s="10" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="6" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="E80" s="6">
-        <v>30.0</v>
+        <v>85.0</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="G80" s="6">
         <v>2020.0</v>
       </c>
-      <c r="H80" s="8" t="s">
-        <v>406</v>
+      <c r="H80" s="36" t="s">
+        <v>423</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>321</v>
+        <v>424</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="L80" s="6" t="s">
         <v>41</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>43</v>
+        <v>426</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="P80" s="7" t="s">
-        <v>413</v>
+        <v>427</v>
+      </c>
+      <c r="P80" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="Q80" s="6" t="s">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="R80" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S80" s="6">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="T80" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U80" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V80" s="6">
-        <v>9.5333</v>
-      </c>
-      <c r="W80" s="6">
-        <v>10.944</v>
-      </c>
-      <c r="X80" s="6">
-        <v>12.88</v>
-      </c>
-      <c r="Y80" s="6">
-        <v>9.8</v>
+        <v>70</v>
+      </c>
+      <c r="V80" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W80" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X80" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y80" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z80" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AA80" s="7" t="s">
         <v>50</v>
@@ -10009,75 +9997,75 @@
         <v>4</v>
       </c>
       <c r="AC80" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="AD80" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE80" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE80" s="10" t="s">
+      <c r="AF80" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF80" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="6" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="E81" s="6">
-        <v>3401.0</v>
+        <v>325.0</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G81" s="7">
-        <v>2016.0</v>
-      </c>
-      <c r="H81" s="35" t="s">
-        <v>418</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>420</v>
+        <v>432</v>
+      </c>
+      <c r="G81" s="6">
+        <v>2020.0</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L81" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L81" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M81" s="7" t="s">
-        <v>186</v>
+      <c r="M81" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="N81" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P81" s="6" t="s">
-        <v>344</v>
+        <v>308</v>
+      </c>
+      <c r="P81" s="14" t="s">
+        <v>435</v>
       </c>
       <c r="Q81" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="R81" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="S81" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="R81" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="S81" s="37">
+        <v>0.39</v>
       </c>
       <c r="T81" s="6" t="s">
         <v>47</v>
@@ -10085,17 +10073,17 @@
       <c r="U81" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V81" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W81" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X81" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y81" s="6" t="s">
-        <v>43</v>
+      <c r="V81" s="6">
+        <v>31.51</v>
+      </c>
+      <c r="W81" s="6">
+        <v>30.4</v>
+      </c>
+      <c r="X81" s="6">
+        <v>28.18</v>
+      </c>
+      <c r="Y81" s="6">
+        <v>22.08</v>
       </c>
       <c r="Z81" s="6" t="s">
         <v>49</v>
@@ -10106,9 +10094,7 @@
       <c r="AB81" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC81" s="7" t="s">
-        <v>422</v>
-      </c>
+      <c r="AC81" s="7"/>
       <c r="AD81" s="10" t="s">
         <v>51</v>
       </c>
@@ -10116,84 +10102,84 @@
         <v>4</v>
       </c>
       <c r="AF81" s="10" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="E82" s="6">
-        <v>85.0</v>
+        <v>325.0</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G82" s="6">
         <v>2020.0</v>
       </c>
-      <c r="H82" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>428</v>
+      <c r="H82" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>436</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>429</v>
+        <v>113</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>41</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>430</v>
+        <v>43</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="P82" s="6" t="s">
-        <v>125</v>
+        <v>308</v>
+      </c>
+      <c r="P82" s="14" t="s">
+        <v>437</v>
       </c>
       <c r="Q82" s="6" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="R82" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S82" s="6">
-        <v>0.4</v>
+      <c r="S82" s="37">
+        <v>0.46</v>
       </c>
       <c r="T82" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U82" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V82" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W82" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X82" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y82" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="V82" s="6">
+        <v>3.79</v>
+      </c>
+      <c r="W82" s="6">
+        <v>2.78</v>
+      </c>
+      <c r="X82" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="Y82" s="6">
+        <v>2.7</v>
       </c>
       <c r="Z82" s="6" t="s">
         <v>49</v>
@@ -10204,94 +10190,92 @@
       <c r="AB82" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC82" s="7" t="s">
-        <v>432</v>
-      </c>
+      <c r="AC82" s="7"/>
       <c r="AD82" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE82" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE82" s="10" t="s">
+      <c r="AF82" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF82" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="6" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E83" s="6">
-        <v>325.0</v>
+        <v>46.0</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G83" s="6">
-        <v>2020.0</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="I83" s="14" t="s">
-        <v>438</v>
+        <v>441</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H83" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>113</v>
+        <v>442</v>
       </c>
       <c r="K83" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="M83" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N83" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O83" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P83" s="14" t="s">
-        <v>439</v>
+      <c r="N83" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="Q83" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="R83" s="6" t="s">
+      <c r="R83" s="6">
+        <v>0.3815652</v>
+      </c>
+      <c r="S83" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S83" s="37">
-        <v>0.39</v>
-      </c>
       <c r="T83" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U83" s="6" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="V83" s="6">
-        <v>31.51</v>
+        <v>90.09</v>
       </c>
       <c r="W83" s="6">
-        <v>30.4</v>
+        <v>21.2</v>
       </c>
       <c r="X83" s="6">
-        <v>28.18</v>
+        <v>3.74</v>
       </c>
       <c r="Y83" s="6">
-        <v>22.08</v>
+        <v>1.6</v>
       </c>
       <c r="Z83" s="6" t="s">
         <v>49</v>
@@ -10302,95 +10286,97 @@
       <c r="AB83" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC83" s="7"/>
+      <c r="AC83" s="7" t="s">
+        <v>444</v>
+      </c>
       <c r="AD83" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE83" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE83" s="10" t="s">
+      <c r="AF83" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF83" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="6" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E84" s="6">
-        <v>325.0</v>
+        <v>46.0</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G84" s="6">
-        <v>2020.0</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="I84" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="J84" s="6" t="s">
-        <v>113</v>
+        <v>441</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H84" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>442</v>
       </c>
       <c r="K84" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="M84" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N84" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O84" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P84" s="14" t="s">
-        <v>441</v>
+      <c r="N84" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="Q84" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="R84" s="6" t="s">
+      <c r="R84" s="6">
+        <v>0.2893837</v>
+      </c>
+      <c r="S84" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S84" s="37">
-        <v>0.46</v>
-      </c>
       <c r="T84" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U84" s="6" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="V84" s="6">
-        <v>3.79</v>
+        <v>90.09</v>
       </c>
       <c r="W84" s="6">
-        <v>2.78</v>
+        <v>21.2</v>
       </c>
       <c r="X84" s="6">
-        <v>3.9</v>
+        <v>133.18</v>
       </c>
       <c r="Y84" s="6">
-        <v>2.7</v>
+        <v>63.52</v>
       </c>
       <c r="Z84" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AA84" s="7" t="s">
         <v>50</v>
@@ -10398,35 +10384,37 @@
       <c r="AB84" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC84" s="7"/>
+      <c r="AC84" s="7" t="s">
+        <v>444</v>
+      </c>
       <c r="AD84" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE84" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE84" s="10" t="s">
+      <c r="AF84" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF84" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E85" s="6">
-        <v>46.0</v>
+        <v>199.0</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>111</v>
@@ -10437,8 +10425,8 @@
       <c r="I85" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J85" s="7" t="s">
-        <v>446</v>
+      <c r="J85" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K85" s="6" t="s">
         <v>40</v>
@@ -10449,11 +10437,11 @@
       <c r="M85" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N85" s="6" t="s">
+      <c r="N85" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="O85" s="6" t="s">
-        <v>447</v>
+      <c r="O85" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="P85" s="6" t="s">
         <v>45</v>
@@ -10462,7 +10450,7 @@
         <v>115</v>
       </c>
       <c r="R85" s="6">
-        <v>0.3815652</v>
+        <v>0.3119692</v>
       </c>
       <c r="S85" s="6" t="s">
         <v>43</v>
@@ -10474,16 +10462,16 @@
         <v>70</v>
       </c>
       <c r="V85" s="6">
-        <v>90.09</v>
+        <v>105.8</v>
       </c>
       <c r="W85" s="6">
-        <v>21.2</v>
+        <v>24.36</v>
       </c>
       <c r="X85" s="6">
-        <v>3.74</v>
+        <v>4.62</v>
       </c>
       <c r="Y85" s="6">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="Z85" s="6" t="s">
         <v>49</v>
@@ -10495,7 +10483,7 @@
         <v>4</v>
       </c>
       <c r="AC85" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AD85" s="10" t="s">
         <v>4</v>
@@ -10509,22 +10497,22 @@
     </row>
     <row r="86">
       <c r="A86" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E86" s="6">
-        <v>46.0</v>
+        <v>199.0</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>111</v>
@@ -10535,8 +10523,8 @@
       <c r="I86" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J86" s="7" t="s">
-        <v>446</v>
+      <c r="J86" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K86" s="6" t="s">
         <v>40</v>
@@ -10547,11 +10535,11 @@
       <c r="M86" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N86" s="6" t="s">
+      <c r="N86" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="O86" s="6" t="s">
-        <v>447</v>
+      <c r="O86" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>65</v>
@@ -10560,7 +10548,7 @@
         <v>115</v>
       </c>
       <c r="R86" s="6">
-        <v>0.2893837</v>
+        <v>0.1828896</v>
       </c>
       <c r="S86" s="6" t="s">
         <v>43</v>
@@ -10572,16 +10560,16 @@
         <v>70</v>
       </c>
       <c r="V86" s="6">
-        <v>90.09</v>
+        <v>105.8</v>
       </c>
       <c r="W86" s="6">
-        <v>21.2</v>
+        <v>24.36</v>
       </c>
       <c r="X86" s="6">
-        <v>133.18</v>
+        <v>85.76</v>
       </c>
       <c r="Y86" s="6">
-        <v>63.52</v>
+        <v>39.94</v>
       </c>
       <c r="Z86" s="6" t="s">
         <v>66</v>
@@ -10593,7 +10581,7 @@
         <v>4</v>
       </c>
       <c r="AC86" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AD86" s="10" t="s">
         <v>4</v>
@@ -10607,22 +10595,22 @@
     </row>
     <row r="87">
       <c r="A87" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E87" s="6">
-        <v>199.0</v>
+        <v>46.0</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>111</v>
@@ -10631,10 +10619,10 @@
         <v>43</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>113</v>
+        <v>58</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>442</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>40</v>
@@ -10646,10 +10634,10 @@
         <v>60</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="O87" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="O87" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="P87" s="6" t="s">
         <v>45</v>
@@ -10658,28 +10646,28 @@
         <v>115</v>
       </c>
       <c r="R87" s="6">
-        <v>0.3119692</v>
+        <v>0.1759694</v>
       </c>
       <c r="S87" s="6" t="s">
         <v>43</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U87" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="V87" s="6">
-        <v>105.8</v>
+        <v>5.08</v>
       </c>
       <c r="W87" s="6">
-        <v>24.36</v>
+        <v>3.36</v>
       </c>
       <c r="X87" s="6">
-        <v>4.62</v>
+        <v>3.74</v>
       </c>
       <c r="Y87" s="6">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="Z87" s="6" t="s">
         <v>49</v>
@@ -10691,36 +10679,36 @@
         <v>4</v>
       </c>
       <c r="AC87" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AD87" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE87" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE87" s="10" t="s">
+      <c r="AF87" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF87" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E88" s="6">
-        <v>199.0</v>
+        <v>46.0</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>111</v>
@@ -10729,10 +10717,10 @@
         <v>43</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>113</v>
+        <v>64</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>442</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>40</v>
@@ -10744,10 +10732,10 @@
         <v>60</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="O88" s="7" t="s">
-        <v>145</v>
+        <v>43</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>65</v>
@@ -10756,28 +10744,28 @@
         <v>115</v>
       </c>
       <c r="R88" s="6">
-        <v>0.1828896</v>
+        <v>0.01238759</v>
       </c>
       <c r="S88" s="6" t="s">
         <v>43</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U88" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="V88" s="6">
-        <v>105.8</v>
+        <v>48.74</v>
       </c>
       <c r="W88" s="6">
-        <v>24.36</v>
+        <v>39.96</v>
       </c>
       <c r="X88" s="6">
-        <v>85.76</v>
+        <v>133.18</v>
       </c>
       <c r="Y88" s="6">
-        <v>39.94</v>
+        <v>63.52</v>
       </c>
       <c r="Z88" s="6" t="s">
         <v>66</v>
@@ -10789,36 +10777,36 @@
         <v>4</v>
       </c>
       <c r="AC88" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AD88" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE88" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE88" s="10" t="s">
+      <c r="AF88" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF88" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E89" s="6">
-        <v>46.0</v>
+        <v>199.0</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>111</v>
@@ -10829,8 +10817,8 @@
       <c r="I89" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J89" s="7" t="s">
-        <v>446</v>
+      <c r="J89" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K89" s="6" t="s">
         <v>40</v>
@@ -10844,8 +10832,8 @@
       <c r="N89" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O89" s="6" t="s">
-        <v>447</v>
+      <c r="O89" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="P89" s="6" t="s">
         <v>45</v>
@@ -10854,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="R89" s="6">
-        <v>0.1759694</v>
+        <v>0.5540963</v>
       </c>
       <c r="S89" s="6" t="s">
         <v>43</v>
@@ -10866,16 +10854,16 @@
         <v>48</v>
       </c>
       <c r="V89" s="6">
-        <v>5.08</v>
+        <v>4.38</v>
       </c>
       <c r="W89" s="6">
-        <v>3.36</v>
+        <v>2.15</v>
       </c>
       <c r="X89" s="6">
-        <v>3.74</v>
+        <v>4.62</v>
       </c>
       <c r="Y89" s="6">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="Z89" s="6" t="s">
         <v>49</v>
@@ -10887,7 +10875,7 @@
         <v>4</v>
       </c>
       <c r="AC89" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AD89" s="10" t="s">
         <v>51</v>
@@ -10901,22 +10889,22 @@
     </row>
     <row r="90">
       <c r="A90" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E90" s="6">
-        <v>46.0</v>
+        <v>199.0</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>111</v>
@@ -10927,8 +10915,8 @@
       <c r="I90" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J90" s="7" t="s">
-        <v>446</v>
+      <c r="J90" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K90" s="6" t="s">
         <v>40</v>
@@ -10942,8 +10930,8 @@
       <c r="N90" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O90" s="6" t="s">
-        <v>447</v>
+      <c r="O90" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="P90" s="6" t="s">
         <v>65</v>
@@ -10952,7 +10940,7 @@
         <v>115</v>
       </c>
       <c r="R90" s="6">
-        <v>0.01238759</v>
+        <v>0.2664722</v>
       </c>
       <c r="S90" s="6" t="s">
         <v>43</v>
@@ -10964,16 +10952,16 @@
         <v>48</v>
       </c>
       <c r="V90" s="6">
-        <v>48.74</v>
+        <v>47.14</v>
       </c>
       <c r="W90" s="6">
-        <v>39.96</v>
+        <v>39.81</v>
       </c>
       <c r="X90" s="6">
-        <v>133.18</v>
+        <v>85.76</v>
       </c>
       <c r="Y90" s="6">
-        <v>63.52</v>
+        <v>39.94</v>
       </c>
       <c r="Z90" s="6" t="s">
         <v>66</v>
@@ -10985,7 +10973,7 @@
         <v>4</v>
       </c>
       <c r="AC90" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AD90" s="10" t="s">
         <v>51</v>
@@ -10999,82 +10987,82 @@
     </row>
     <row r="91">
       <c r="A91" s="6" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E91" s="6">
+        <v>48.0</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="E91" s="6">
-        <v>199.0</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H91" s="38" t="s">
+      <c r="G91" s="6">
+        <v>2013.0</v>
+      </c>
+      <c r="H91" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>113</v>
+        <v>450</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K91" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="M91" s="6" t="s">
         <v>60</v>
       </c>
       <c r="N91" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P91" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q91" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="R91" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O91" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P91" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q91" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="R91" s="6">
-        <v>0.5540963</v>
-      </c>
-      <c r="S91" s="6" t="s">
+      <c r="S91" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="T91" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="U91" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V91" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T91" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="U91" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V91" s="6">
-        <v>4.38</v>
-      </c>
-      <c r="W91" s="6">
-        <v>2.15</v>
-      </c>
-      <c r="X91" s="6">
-        <v>4.62</v>
-      </c>
-      <c r="Y91" s="6">
-        <v>2.3</v>
+      <c r="W91" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X91" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y91" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z91" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AA91" s="7" t="s">
         <v>50</v>
@@ -11082,97 +11070,95 @@
       <c r="AB91" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC91" s="7" t="s">
-        <v>448</v>
-      </c>
+      <c r="AC91" s="7"/>
       <c r="AD91" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE91" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE91" s="10" t="s">
+      <c r="AF91" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF91" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="E92" s="6">
-        <v>199.0</v>
+        <v>195.0</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H92" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="G92" s="6">
+        <v>2017.0</v>
+      </c>
+      <c r="H92" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>113</v>
+        <v>457</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>458</v>
       </c>
       <c r="K92" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>43</v>
+        <v>459</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="Q92" s="6" t="s">
-        <v>115</v>
+        <v>460</v>
       </c>
       <c r="R92" s="6">
-        <v>0.2664722</v>
+        <v>0.287</v>
       </c>
       <c r="S92" s="6" t="s">
         <v>43</v>
       </c>
       <c r="T92" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U92" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V92" s="6">
-        <v>47.14</v>
-      </c>
-      <c r="W92" s="6">
-        <v>39.81</v>
-      </c>
-      <c r="X92" s="6">
-        <v>85.76</v>
-      </c>
-      <c r="Y92" s="6">
-        <v>39.94</v>
+        <v>70</v>
+      </c>
+      <c r="V92" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W92" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X92" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y92" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z92" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AA92" s="7" t="s">
         <v>50</v>
@@ -11180,49 +11166,47 @@
       <c r="AB92" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC92" s="7" t="s">
-        <v>448</v>
-      </c>
+      <c r="AC92" s="39"/>
       <c r="AD92" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE92" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE92" s="10" t="s">
+      <c r="AF92" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF92" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="E93" s="6">
-        <v>48.0</v>
+        <v>60.0</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="G93" s="6">
-        <v>2013.0</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>43</v>
+        <v>2011.0</v>
+      </c>
+      <c r="H93" s="40" t="s">
+        <v>465</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>59</v>
+        <v>467</v>
       </c>
       <c r="K93" s="6" t="s">
         <v>40</v>
@@ -11234,43 +11218,43 @@
         <v>60</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>454</v>
+        <v>43</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>455</v>
+        <v>226</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="Q93" s="6" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
       <c r="R93" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S93" s="6">
-        <v>0.31</v>
+        <v>0.59</v>
       </c>
       <c r="T93" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U93" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V93" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W93" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X93" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y93" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="V93" s="6">
+        <v>15.7</v>
+      </c>
+      <c r="W93" s="6">
+        <v>9.16</v>
+      </c>
+      <c r="X93" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="Y93" s="6">
+        <v>13.7</v>
       </c>
       <c r="Z93" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AA93" s="7" t="s">
         <v>50</v>
@@ -11280,45 +11264,45 @@
       </c>
       <c r="AC93" s="7"/>
       <c r="AD93" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE93" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE93" s="10" t="s">
+      <c r="AF93" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF93" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E94" s="6">
-        <v>195.0</v>
+        <v>60.0</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G94" s="6">
-        <v>2017.0</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>43</v>
+        <v>2011.0</v>
+      </c>
+      <c r="H94" s="40" t="s">
+        <v>465</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="K94" s="6" t="s">
         <v>40</v>
@@ -11327,46 +11311,46 @@
         <v>41</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="N94" s="7" t="s">
-        <v>463</v>
+        <v>43</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P94" s="6" t="s">
-        <v>45</v>
+        <v>469</v>
+      </c>
+      <c r="P94" s="7" t="s">
+        <v>470</v>
       </c>
       <c r="Q94" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="R94" s="6">
-        <v>0.287</v>
-      </c>
-      <c r="S94" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="R94" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="S94" s="6">
+        <v>0.55</v>
+      </c>
       <c r="T94" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U94" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V94" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W94" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X94" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y94" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="V94" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="W94" s="6">
+        <v>5.84</v>
+      </c>
+      <c r="X94" s="6">
+        <v>4.6</v>
+      </c>
+      <c r="Y94" s="6">
+        <v>3.13</v>
       </c>
       <c r="Z94" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AA94" s="7" t="s">
         <v>50</v>
@@ -11374,47 +11358,47 @@
       <c r="AB94" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC94" s="39"/>
+      <c r="AC94" s="9"/>
       <c r="AD94" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE94" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AE94" s="10" t="s">
+      <c r="AF94" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="AF94" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E95" s="6">
-        <v>60.0</v>
+        <v>47.0</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="G95" s="6">
-        <v>2011.0</v>
-      </c>
-      <c r="H95" s="40" t="s">
-        <v>469</v>
+        <v>2017.0</v>
+      </c>
+      <c r="H95" s="25" t="s">
+        <v>475</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>477</v>
       </c>
       <c r="K95" s="6" t="s">
         <v>40</v>
@@ -11429,19 +11413,19 @@
         <v>43</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P95" s="7" t="s">
-        <v>125</v>
+        <v>478</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>478</v>
       </c>
       <c r="Q95" s="6" t="s">
-        <v>377</v>
+        <v>479</v>
       </c>
       <c r="R95" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S95" s="6">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
       <c r="T95" s="6" t="s">
         <v>47</v>
@@ -11449,20 +11433,20 @@
       <c r="U95" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V95" s="6">
-        <v>15.7</v>
-      </c>
-      <c r="W95" s="6">
-        <v>9.16</v>
-      </c>
-      <c r="X95" s="6">
-        <v>12.7</v>
-      </c>
-      <c r="Y95" s="6">
-        <v>13.7</v>
+      <c r="V95" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W95" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X95" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y95" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z95" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AA95" s="7" t="s">
         <v>50</v>
@@ -11470,7 +11454,9 @@
       <c r="AB95" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC95" s="7"/>
+      <c r="AC95" s="7" t="s">
+        <v>480</v>
+      </c>
       <c r="AD95" s="10" t="s">
         <v>51</v>
       </c>
@@ -11478,39 +11464,39 @@
         <v>4</v>
       </c>
       <c r="AF95" s="10" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D96" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E96" s="6">
+        <v>159.0</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G96" s="6">
+        <v>2009.0</v>
+      </c>
+      <c r="H96" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="J96" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="E96" s="6">
-        <v>60.0</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G96" s="6">
-        <v>2011.0</v>
-      </c>
-      <c r="H96" s="40" t="s">
-        <v>469</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="K96" s="6" t="s">
         <v>40</v>
@@ -11525,19 +11511,19 @@
         <v>43</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q96" s="6" t="s">
-        <v>377</v>
+        <v>488</v>
+      </c>
+      <c r="Q96" s="7" t="s">
+        <v>489</v>
       </c>
       <c r="R96" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S96" s="6">
-        <v>0.55</v>
+        <v>0.269</v>
       </c>
       <c r="T96" s="6" t="s">
         <v>47</v>
@@ -11546,16 +11532,16 @@
         <v>48</v>
       </c>
       <c r="V96" s="6">
-        <v>7.4</v>
+        <v>11.39</v>
       </c>
       <c r="W96" s="6">
-        <v>5.84</v>
+        <v>11.437</v>
       </c>
       <c r="X96" s="6">
-        <v>4.6</v>
+        <v>14.85</v>
       </c>
       <c r="Y96" s="6">
-        <v>3.13</v>
+        <v>18.755</v>
       </c>
       <c r="Z96" s="6" t="s">
         <v>66</v>
@@ -11579,34 +11565,34 @@
     </row>
     <row r="97">
       <c r="A97" s="6" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="E97" s="6">
-        <v>47.0</v>
+        <v>173.0</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="G97" s="6">
-        <v>2017.0</v>
-      </c>
-      <c r="H97" s="25" t="s">
-        <v>479</v>
+        <v>2009.0</v>
+      </c>
+      <c r="H97" s="40" t="s">
+        <v>485</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="J97" s="6" t="s">
-        <v>481</v>
+        <v>490</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>467</v>
       </c>
       <c r="K97" s="6" t="s">
         <v>40</v>
@@ -11621,19 +11607,19 @@
         <v>43</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="P97" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q97" s="6" t="s">
-        <v>483</v>
+        <v>491</v>
+      </c>
+      <c r="P97" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q97" s="7" t="s">
+        <v>489</v>
       </c>
       <c r="R97" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S97" s="6">
-        <v>0.69</v>
+        <v>0.294</v>
       </c>
       <c r="T97" s="6" t="s">
         <v>47</v>
@@ -11641,20 +11627,20 @@
       <c r="U97" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V97" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W97" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X97" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y97" s="6" t="s">
-        <v>43</v>
+      <c r="V97" s="6">
+        <v>2154.12</v>
+      </c>
+      <c r="W97" s="6">
+        <v>3182.373</v>
+      </c>
+      <c r="X97" s="6">
+        <v>1461.33</v>
+      </c>
+      <c r="Y97" s="6">
+        <v>2233.492</v>
       </c>
       <c r="Z97" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AA97" s="7" t="s">
         <v>50</v>
@@ -11662,9 +11648,7 @@
       <c r="AB97" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC97" s="7" t="s">
-        <v>484</v>
-      </c>
+      <c r="AC97" s="9"/>
       <c r="AD97" s="10" t="s">
         <v>51</v>
       </c>
@@ -11672,39 +11656,39 @@
         <v>4</v>
       </c>
       <c r="AF97" s="10" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="E98" s="6">
-        <v>159.0</v>
+        <v>70.0</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="G98" s="6">
-        <v>2009.0</v>
+        <v>2008.0</v>
       </c>
       <c r="H98" s="40" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>471</v>
+        <v>498</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>40</v>
@@ -11713,25 +11697,25 @@
         <v>41</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="N98" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="P98" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q98" s="7" t="s">
-        <v>493</v>
+        <v>226</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q98" s="6" t="s">
+        <v>500</v>
       </c>
       <c r="R98" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S98" s="6">
-        <v>0.269</v>
+        <v>0.69</v>
       </c>
       <c r="T98" s="6" t="s">
         <v>47</v>
@@ -11740,19 +11724,19 @@
         <v>48</v>
       </c>
       <c r="V98" s="6">
-        <v>11.39</v>
+        <v>790.0</v>
       </c>
       <c r="W98" s="6">
-        <v>11.437</v>
+        <v>889.0</v>
       </c>
       <c r="X98" s="6">
-        <v>14.85</v>
+        <v>411.0</v>
       </c>
       <c r="Y98" s="6">
-        <v>18.755</v>
+        <v>371.0</v>
       </c>
       <c r="Z98" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AA98" s="7" t="s">
         <v>50</v>
@@ -11773,34 +11757,34 @@
     </row>
     <row r="99">
       <c r="A99" s="6" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="E99" s="6">
-        <v>173.0</v>
+        <v>20.0</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="G99" s="6">
-        <v>2009.0</v>
-      </c>
-      <c r="H99" s="40" t="s">
-        <v>489</v>
+        <v>2018.0</v>
+      </c>
+      <c r="H99" s="25" t="s">
+        <v>505</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>471</v>
+        <v>59</v>
       </c>
       <c r="K99" s="6" t="s">
         <v>40</v>
@@ -11809,25 +11793,25 @@
         <v>41</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="N99" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>495</v>
+        <v>308</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q99" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="R99" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q99" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="R99" s="6">
+        <v>0.507</v>
+      </c>
+      <c r="S99" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="S99" s="6">
-        <v>0.294</v>
       </c>
       <c r="T99" s="6" t="s">
         <v>47</v>
@@ -11836,27 +11820,29 @@
         <v>48</v>
       </c>
       <c r="V99" s="6">
-        <v>2154.12</v>
+        <v>13.93</v>
       </c>
       <c r="W99" s="6">
-        <v>3182.373</v>
+        <v>17.64</v>
       </c>
       <c r="X99" s="6">
-        <v>1461.33</v>
+        <v>22.5</v>
       </c>
       <c r="Y99" s="6">
-        <v>2233.492</v>
+        <v>27.68</v>
       </c>
       <c r="Z99" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AA99" s="7" t="s">
-        <v>50</v>
+        <v>508</v>
       </c>
       <c r="AB99" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC99" s="9"/>
+      <c r="AC99" s="7" t="s">
+        <v>509</v>
+      </c>
       <c r="AD99" s="10" t="s">
         <v>51</v>
       </c>
@@ -11869,31 +11855,31 @@
     </row>
     <row r="100">
       <c r="A100" s="6" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="E100" s="6">
-        <v>70.0</v>
+        <v>466.0</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="G100" s="6">
-        <v>2008.0</v>
-      </c>
-      <c r="H100" s="40" t="s">
-        <v>501</v>
+        <v>2013.0</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>514</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="J100" s="6" t="s">
         <v>89</v>
@@ -11905,25 +11891,25 @@
         <v>41</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="N100" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O100" s="7" t="s">
-        <v>230</v>
+      <c r="O100" s="6" t="s">
+        <v>516</v>
       </c>
       <c r="P100" s="6" t="s">
-        <v>503</v>
+        <v>232</v>
       </c>
       <c r="Q100" s="6" t="s">
-        <v>504</v>
+        <v>247</v>
       </c>
       <c r="R100" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S100" s="6">
-        <v>0.69</v>
+        <v>0.42</v>
       </c>
       <c r="T100" s="6" t="s">
         <v>47</v>
@@ -11932,19 +11918,19 @@
         <v>48</v>
       </c>
       <c r="V100" s="6">
-        <v>790.0</v>
+        <v>88.84</v>
       </c>
       <c r="W100" s="6">
-        <v>889.0</v>
+        <v>153.26</v>
       </c>
       <c r="X100" s="6">
-        <v>411.0</v>
+        <v>20.47</v>
       </c>
       <c r="Y100" s="6">
-        <v>371.0</v>
+        <v>19.52</v>
       </c>
       <c r="Z100" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AA100" s="7" t="s">
         <v>50</v>
@@ -11952,7 +11938,9 @@
       <c r="AB100" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC100" s="9"/>
+      <c r="AC100" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="AD100" s="10" t="s">
         <v>51</v>
       </c>
@@ -11965,34 +11953,34 @@
     </row>
     <row r="101">
       <c r="A101" s="6" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="E101" s="6">
-        <v>20.0</v>
+        <v>466.0</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G101" s="6">
-        <v>2018.0</v>
-      </c>
-      <c r="H101" s="25" t="s">
-        <v>509</v>
+        <v>2013.0</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>514</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>59</v>
+        <v>518</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="K101" s="6" t="s">
         <v>40</v>
@@ -12001,25 +11989,25 @@
         <v>41</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="N101" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O101" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P101" s="7" t="s">
-        <v>312</v>
+      <c r="O101" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="Q101" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="R101" s="6">
-        <v>0.507</v>
-      </c>
-      <c r="S101" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="R101" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="S101" s="6">
+        <v>0.5</v>
       </c>
       <c r="T101" s="6" t="s">
         <v>47</v>
@@ -12028,28 +12016,28 @@
         <v>48</v>
       </c>
       <c r="V101" s="6">
-        <v>13.93</v>
+        <v>133.47</v>
       </c>
       <c r="W101" s="6">
-        <v>17.64</v>
+        <v>166.29</v>
       </c>
       <c r="X101" s="6">
-        <v>22.5</v>
+        <v>41.99</v>
       </c>
       <c r="Y101" s="6">
-        <v>27.68</v>
+        <v>49.11</v>
       </c>
       <c r="Z101" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AA101" s="7" t="s">
-        <v>512</v>
+        <v>50</v>
       </c>
       <c r="AB101" s="7" t="s">
         <v>4</v>
       </c>
       <c r="AC101" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="AD101" s="10" t="s">
         <v>51</v>
@@ -12063,28 +12051,28 @@
     </row>
     <row r="102">
       <c r="A102" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E102" s="6">
         <v>466.0</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G102" s="6">
         <v>2013.0</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>519</v>
@@ -12108,16 +12096,16 @@
         <v>520</v>
       </c>
       <c r="P102" s="6" t="s">
-        <v>236</v>
+        <v>521</v>
       </c>
       <c r="Q102" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="R102" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S102" s="6">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
       <c r="T102" s="6" t="s">
         <v>47</v>
@@ -12126,16 +12114,16 @@
         <v>48</v>
       </c>
       <c r="V102" s="6">
-        <v>88.84</v>
+        <v>97.83</v>
       </c>
       <c r="W102" s="6">
-        <v>153.26</v>
+        <v>139.32</v>
       </c>
       <c r="X102" s="6">
-        <v>20.47</v>
+        <v>121.17</v>
       </c>
       <c r="Y102" s="6">
-        <v>19.52</v>
+        <v>153.76</v>
       </c>
       <c r="Z102" s="6" t="s">
         <v>66</v>
@@ -12147,7 +12135,7 @@
         <v>4</v>
       </c>
       <c r="AC102" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AD102" s="10" t="s">
         <v>51</v>
@@ -12161,34 +12149,34 @@
     </row>
     <row r="103">
       <c r="A103" s="6" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="E103" s="6">
-        <v>466.0</v>
+        <v>56.0</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="G103" s="6">
-        <v>2013.0</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>518</v>
+        <v>2019.0</v>
+      </c>
+      <c r="H103" s="41" t="s">
+        <v>526</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>89</v>
+        <v>528</v>
       </c>
       <c r="K103" s="6" t="s">
         <v>40</v>
@@ -12197,43 +12185,43 @@
         <v>41</v>
       </c>
       <c r="M103" s="6" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O103" s="6" t="s">
-        <v>230</v>
+        <v>529</v>
+      </c>
+      <c r="O103" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="P103" s="6" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="Q103" s="6" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="R103" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S103" s="6">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="T103" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U103" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V103" s="6">
-        <v>133.47</v>
-      </c>
-      <c r="W103" s="6">
-        <v>166.29</v>
-      </c>
-      <c r="X103" s="6">
-        <v>41.99</v>
-      </c>
-      <c r="Y103" s="6">
-        <v>49.11</v>
+        <v>70</v>
+      </c>
+      <c r="V103" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W103" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X103" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y103" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z103" s="6" t="s">
         <v>49</v>
@@ -12244,49 +12232,47 @@
       <c r="AB103" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC103" s="7" t="s">
-        <v>521</v>
-      </c>
+      <c r="AC103" s="7"/>
       <c r="AD103" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE103" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE103" s="10" t="s">
+      <c r="AF103" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF103" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="6" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D104" s="7" t="s">
-        <v>516</v>
+      <c r="D104" s="42" t="s">
+        <v>524</v>
       </c>
       <c r="E104" s="6">
-        <v>466.0</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>517</v>
+        <v>56.0</v>
+      </c>
+      <c r="F104" s="42" t="s">
+        <v>525</v>
       </c>
       <c r="G104" s="6">
-        <v>2013.0</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>518</v>
+        <v>2019.0</v>
+      </c>
+      <c r="H104" s="41" t="s">
+        <v>526</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>89</v>
+        <v>528</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>40</v>
@@ -12295,46 +12281,46 @@
         <v>41</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O104" s="6" t="s">
-        <v>524</v>
+        <v>68</v>
+      </c>
+      <c r="O104" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="P104" s="6" t="s">
-        <v>525</v>
+        <v>309</v>
       </c>
       <c r="Q104" s="6" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="R104" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S104" s="6">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T104" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U104" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V104" s="6">
-        <v>97.83</v>
-      </c>
-      <c r="W104" s="6">
-        <v>139.32</v>
-      </c>
-      <c r="X104" s="6">
-        <v>121.17</v>
-      </c>
-      <c r="Y104" s="6">
-        <v>153.76</v>
+        <v>70</v>
+      </c>
+      <c r="V104" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W104" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X104" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y104" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="Z104" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AA104" s="7" t="s">
         <v>50</v>
@@ -12342,49 +12328,47 @@
       <c r="AB104" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC104" s="7" t="s">
-        <v>521</v>
-      </c>
+      <c r="AC104" s="7"/>
       <c r="AD104" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE104" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE104" s="10" t="s">
+      <c r="AF104" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AF104" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>528</v>
+        <v>34</v>
+      </c>
+      <c r="D105" s="42" t="s">
+        <v>524</v>
       </c>
       <c r="E105" s="6">
         <v>56.0</v>
       </c>
-      <c r="F105" s="7" t="s">
-        <v>529</v>
+      <c r="F105" s="42" t="s">
+        <v>525</v>
       </c>
       <c r="G105" s="6">
         <v>2019.0</v>
       </c>
       <c r="H105" s="41" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>531</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K105" s="6" t="s">
         <v>40</v>
@@ -12396,13 +12380,13 @@
         <v>134</v>
       </c>
       <c r="N105" s="7" t="s">
-        <v>533</v>
+        <v>43</v>
       </c>
       <c r="O105" s="7" t="s">
         <v>114</v>
       </c>
       <c r="P105" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q105" s="6" t="s">
         <v>115</v>
@@ -12411,10 +12395,10 @@
         <v>43</v>
       </c>
       <c r="S105" s="6">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="T105" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="U105" s="6" t="s">
         <v>70</v>
@@ -12442,206 +12426,82 @@
       </c>
       <c r="AC105" s="7"/>
       <c r="AD105" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE105" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="AE105" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="AF105" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D106" s="42" t="s">
-        <v>528</v>
-      </c>
-      <c r="E106" s="6">
-        <v>56.0</v>
-      </c>
-      <c r="F106" s="42" t="s">
-        <v>529</v>
-      </c>
-      <c r="G106" s="6">
-        <v>2019.0</v>
-      </c>
-      <c r="H106" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="I106" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="J106" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="K106" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L106" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M106" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="N106" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O106" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P106" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q106" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="R106" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S106" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="T106" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="U106" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V106" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W106" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X106" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y106" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z106" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA106" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB106" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC106" s="7"/>
-      <c r="AD106" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE106" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF106" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="43"/>
+      <c r="M106" s="43"/>
+      <c r="N106" s="44"/>
+      <c r="O106" s="44"/>
+      <c r="P106" s="43"/>
+      <c r="Q106" s="43"/>
+      <c r="R106" s="43"/>
+      <c r="S106" s="43"/>
+      <c r="T106" s="43"/>
+      <c r="U106" s="43"/>
+      <c r="V106" s="43"/>
+      <c r="W106" s="43"/>
+      <c r="X106" s="43"/>
+      <c r="Y106" s="43"/>
+      <c r="Z106" s="43"/>
+      <c r="AA106" s="44"/>
+      <c r="AB106" s="44"/>
+      <c r="AC106" s="44"/>
+      <c r="AD106" s="45"/>
+      <c r="AE106" s="45"/>
+      <c r="AF106" s="45"/>
     </row>
     <row r="107">
-      <c r="A107" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D107" s="42" t="s">
-        <v>528</v>
-      </c>
-      <c r="E107" s="6">
-        <v>56.0</v>
-      </c>
-      <c r="F107" s="42" t="s">
-        <v>529</v>
-      </c>
-      <c r="G107" s="6">
-        <v>2019.0</v>
-      </c>
-      <c r="H107" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="J107" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L107" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M107" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="N107" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O107" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P107" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q107" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="R107" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S107" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="T107" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="U107" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V107" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W107" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X107" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y107" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z107" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA107" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB107" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC107" s="7"/>
-      <c r="AD107" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE107" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF107" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="44"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="43"/>
+      <c r="M107" s="43"/>
+      <c r="N107" s="44"/>
+      <c r="O107" s="44"/>
+      <c r="P107" s="43"/>
+      <c r="Q107" s="43"/>
+      <c r="R107" s="43"/>
+      <c r="S107" s="43"/>
+      <c r="T107" s="43"/>
+      <c r="U107" s="43"/>
+      <c r="V107" s="43"/>
+      <c r="W107" s="43"/>
+      <c r="X107" s="43"/>
+      <c r="Y107" s="43"/>
+      <c r="Z107" s="43"/>
+      <c r="AA107" s="44"/>
+      <c r="AB107" s="44"/>
+      <c r="AC107" s="44"/>
+      <c r="AD107" s="45"/>
+      <c r="AE107" s="45"/>
+      <c r="AF107" s="45"/>
     </row>
     <row r="108">
       <c r="A108" s="43"/>
@@ -14883,9 +14743,9 @@
       <c r="AA173" s="44"/>
       <c r="AB173" s="44"/>
       <c r="AC173" s="44"/>
-      <c r="AD173" s="45"/>
-      <c r="AE173" s="45"/>
-      <c r="AF173" s="45"/>
+      <c r="AD173" s="44"/>
+      <c r="AE173" s="44"/>
+      <c r="AF173" s="44"/>
     </row>
     <row r="174">
       <c r="A174" s="43"/>
@@ -14917,9 +14777,9 @@
       <c r="AA174" s="44"/>
       <c r="AB174" s="44"/>
       <c r="AC174" s="44"/>
-      <c r="AD174" s="45"/>
-      <c r="AE174" s="45"/>
-      <c r="AF174" s="45"/>
+      <c r="AD174" s="44"/>
+      <c r="AE174" s="44"/>
+      <c r="AF174" s="44"/>
     </row>
     <row r="175">
       <c r="A175" s="43"/>
@@ -42155,78 +42015,10 @@
       <c r="AE975" s="44"/>
       <c r="AF975" s="44"/>
     </row>
-    <row r="976">
-      <c r="A976" s="43"/>
-      <c r="B976" s="43"/>
-      <c r="C976" s="43"/>
-      <c r="D976" s="44"/>
-      <c r="E976" s="43"/>
-      <c r="F976" s="44"/>
-      <c r="G976" s="43"/>
-      <c r="H976" s="44"/>
-      <c r="I976" s="44"/>
-      <c r="J976" s="43"/>
-      <c r="K976" s="43"/>
-      <c r="L976" s="43"/>
-      <c r="M976" s="43"/>
-      <c r="N976" s="44"/>
-      <c r="O976" s="44"/>
-      <c r="P976" s="43"/>
-      <c r="Q976" s="43"/>
-      <c r="R976" s="43"/>
-      <c r="S976" s="43"/>
-      <c r="T976" s="43"/>
-      <c r="U976" s="43"/>
-      <c r="V976" s="43"/>
-      <c r="W976" s="43"/>
-      <c r="X976" s="43"/>
-      <c r="Y976" s="43"/>
-      <c r="Z976" s="43"/>
-      <c r="AA976" s="44"/>
-      <c r="AB976" s="44"/>
-      <c r="AC976" s="44"/>
-      <c r="AD976" s="44"/>
-      <c r="AE976" s="44"/>
-      <c r="AF976" s="44"/>
-    </row>
-    <row r="977">
-      <c r="A977" s="43"/>
-      <c r="B977" s="43"/>
-      <c r="C977" s="43"/>
-      <c r="D977" s="44"/>
-      <c r="E977" s="43"/>
-      <c r="F977" s="44"/>
-      <c r="G977" s="43"/>
-      <c r="H977" s="44"/>
-      <c r="I977" s="44"/>
-      <c r="J977" s="43"/>
-      <c r="K977" s="43"/>
-      <c r="L977" s="43"/>
-      <c r="M977" s="43"/>
-      <c r="N977" s="44"/>
-      <c r="O977" s="44"/>
-      <c r="P977" s="43"/>
-      <c r="Q977" s="43"/>
-      <c r="R977" s="43"/>
-      <c r="S977" s="43"/>
-      <c r="T977" s="43"/>
-      <c r="U977" s="43"/>
-      <c r="V977" s="43"/>
-      <c r="W977" s="43"/>
-      <c r="X977" s="43"/>
-      <c r="Y977" s="43"/>
-      <c r="Z977" s="43"/>
-      <c r="AA977" s="44"/>
-      <c r="AB977" s="44"/>
-      <c r="AC977" s="44"/>
-      <c r="AD977" s="44"/>
-      <c r="AE977" s="44"/>
-      <c r="AF977" s="44"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AF$107">
-    <sortState ref="A1:AF107">
-      <sortCondition ref="D1:D107"/>
+  <autoFilter ref="$A$1:$AF$105">
+    <sortState ref="A1:AF105">
+      <sortCondition ref="D1:D105"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -42235,34 +42027,34 @@
     <hyperlink r:id="rId4" ref="H10"/>
     <hyperlink r:id="rId5" ref="H12"/>
     <hyperlink r:id="rId6" ref="H13"/>
-    <hyperlink r:id="rId7" ref="H28"/>
-    <hyperlink r:id="rId8" ref="H31"/>
-    <hyperlink r:id="rId9" ref="H48"/>
-    <hyperlink r:id="rId10" ref="H49"/>
-    <hyperlink r:id="rId11" ref="H52"/>
-    <hyperlink r:id="rId12" ref="H53"/>
-    <hyperlink r:id="rId13" ref="H54"/>
-    <hyperlink r:id="rId14" ref="H55"/>
-    <hyperlink r:id="rId15" ref="H56"/>
-    <hyperlink r:id="rId16" ref="H59"/>
-    <hyperlink r:id="rId17" ref="H60"/>
-    <hyperlink r:id="rId18" ref="H61"/>
-    <hyperlink r:id="rId19" ref="H66"/>
-    <hyperlink r:id="rId20" ref="H70"/>
-    <hyperlink r:id="rId21" ref="H71"/>
-    <hyperlink r:id="rId22" ref="H75"/>
-    <hyperlink r:id="rId23" ref="H76"/>
-    <hyperlink r:id="rId24" ref="H77"/>
-    <hyperlink r:id="rId25" ref="H78"/>
-    <hyperlink r:id="rId26" ref="H79"/>
-    <hyperlink r:id="rId27" ref="H80"/>
-    <hyperlink r:id="rId28" ref="H81"/>
-    <hyperlink r:id="rId29" ref="H82"/>
-    <hyperlink r:id="rId30" ref="H97"/>
-    <hyperlink r:id="rId31" ref="H101"/>
-    <hyperlink r:id="rId32" ref="H102"/>
-    <hyperlink r:id="rId33" ref="H103"/>
-    <hyperlink r:id="rId34" ref="H104"/>
+    <hyperlink r:id="rId7" ref="H26"/>
+    <hyperlink r:id="rId8" ref="H29"/>
+    <hyperlink r:id="rId9" ref="H46"/>
+    <hyperlink r:id="rId10" ref="H47"/>
+    <hyperlink r:id="rId11" ref="H50"/>
+    <hyperlink r:id="rId12" ref="H51"/>
+    <hyperlink r:id="rId13" ref="H52"/>
+    <hyperlink r:id="rId14" ref="H53"/>
+    <hyperlink r:id="rId15" ref="H54"/>
+    <hyperlink r:id="rId16" ref="H57"/>
+    <hyperlink r:id="rId17" ref="H58"/>
+    <hyperlink r:id="rId18" ref="H59"/>
+    <hyperlink r:id="rId19" ref="H64"/>
+    <hyperlink r:id="rId20" ref="H68"/>
+    <hyperlink r:id="rId21" ref="H69"/>
+    <hyperlink r:id="rId22" ref="H73"/>
+    <hyperlink r:id="rId23" ref="H74"/>
+    <hyperlink r:id="rId24" ref="H75"/>
+    <hyperlink r:id="rId25" ref="H76"/>
+    <hyperlink r:id="rId26" ref="H77"/>
+    <hyperlink r:id="rId27" ref="H78"/>
+    <hyperlink r:id="rId28" ref="H79"/>
+    <hyperlink r:id="rId29" ref="H80"/>
+    <hyperlink r:id="rId30" ref="H95"/>
+    <hyperlink r:id="rId31" ref="H99"/>
+    <hyperlink r:id="rId32" ref="H100"/>
+    <hyperlink r:id="rId33" ref="H101"/>
+    <hyperlink r:id="rId34" ref="H102"/>
   </hyperlinks>
   <drawing r:id="rId35"/>
   <legacyDrawing r:id="rId36"/>
